--- a/Waste/B1_Scenario_Config.xlsx
+++ b/Waste/B1_Scenario_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste_2025_01_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE69D0A-9E38-4463-8A04-C98C17BF0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A805A-AB4A-442F-BA0B-E82A7E21D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="705" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="705" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="7" r:id="rId1"/>
@@ -643,7 +643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,18 +719,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1376,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1739,83 +1727,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,8 +1749,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{0B65FCA9-AE4C-49D6-A83D-19B489083B24}"/>
@@ -2607,9 +2576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972DAA06-D984-4E4D-8DA8-3BA3227A8E86}">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50:AL50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,7 +2722,7 @@
       <c r="B2" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="160" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="133" t="s">
@@ -2775,82 +2744,82 @@
       <c r="J2" s="155"/>
       <c r="K2" s="155"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="160">
-        <v>0</v>
-      </c>
-      <c r="N2" s="161">
-        <v>0</v>
-      </c>
-      <c r="O2" s="161">
-        <v>0</v>
-      </c>
-      <c r="P2" s="161">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="161">
-        <v>0</v>
-      </c>
-      <c r="R2" s="161">
-        <v>0</v>
-      </c>
-      <c r="S2" s="161">
-        <v>0</v>
-      </c>
-      <c r="T2" s="161">
-        <v>0</v>
-      </c>
-      <c r="U2" s="161">
-        <v>0</v>
-      </c>
-      <c r="V2" s="161">
-        <v>0</v>
-      </c>
-      <c r="W2" s="161">
-        <v>0</v>
-      </c>
-      <c r="X2" s="161">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="162">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="162">
+      <c r="M2" s="176">
+        <v>0</v>
+      </c>
+      <c r="N2" s="177">
+        <v>0</v>
+      </c>
+      <c r="O2" s="177">
+        <v>0</v>
+      </c>
+      <c r="P2" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="177">
+        <v>0</v>
+      </c>
+      <c r="R2" s="177">
+        <v>0</v>
+      </c>
+      <c r="S2" s="177">
+        <v>0</v>
+      </c>
+      <c r="T2" s="177">
+        <v>0</v>
+      </c>
+      <c r="U2" s="177">
+        <v>0</v>
+      </c>
+      <c r="V2" s="177">
+        <v>0</v>
+      </c>
+      <c r="W2" s="177">
+        <v>0</v>
+      </c>
+      <c r="X2" s="177">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="178">
         <v>7.4999999999999963E-3</v>
       </c>
-      <c r="AD2" s="162">
+      <c r="AD2" s="178">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE2" s="162">
+      <c r="AE2" s="178">
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="AF2" s="162">
+      <c r="AF2" s="178">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="AG2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="162">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="163">
+      <c r="AG2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="178">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="179">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +2830,7 @@
       <c r="B3" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="161" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="143" t="s">
@@ -2883,82 +2852,82 @@
       <c r="J3" s="147"/>
       <c r="K3" s="147"/>
       <c r="L3" s="148"/>
-      <c r="M3" s="164">
-        <v>0</v>
-      </c>
-      <c r="N3" s="165">
-        <v>0</v>
-      </c>
-      <c r="O3" s="165">
-        <v>0</v>
-      </c>
-      <c r="P3" s="165">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="165">
-        <v>0</v>
-      </c>
-      <c r="R3" s="165">
-        <v>0</v>
-      </c>
-      <c r="S3" s="165">
-        <v>0</v>
-      </c>
-      <c r="T3" s="165">
-        <v>0</v>
-      </c>
-      <c r="U3" s="165">
-        <v>0</v>
-      </c>
-      <c r="V3" s="165">
-        <v>0</v>
-      </c>
-      <c r="W3" s="165">
-        <v>0</v>
-      </c>
-      <c r="X3" s="165">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="165">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="165">
+      <c r="M3" s="180">
+        <v>0</v>
+      </c>
+      <c r="N3" s="181">
+        <v>0</v>
+      </c>
+      <c r="O3" s="181">
+        <v>0</v>
+      </c>
+      <c r="P3" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="181">
+        <v>0</v>
+      </c>
+      <c r="R3" s="181">
+        <v>0</v>
+      </c>
+      <c r="S3" s="181">
+        <v>0</v>
+      </c>
+      <c r="T3" s="181">
+        <v>0</v>
+      </c>
+      <c r="U3" s="181">
+        <v>0</v>
+      </c>
+      <c r="V3" s="181">
+        <v>0</v>
+      </c>
+      <c r="W3" s="181">
+        <v>0</v>
+      </c>
+      <c r="X3" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="181">
         <v>7.4999999999999963E-3</v>
       </c>
-      <c r="AD3" s="165">
+      <c r="AD3" s="181">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE3" s="165">
+      <c r="AE3" s="181">
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="AF3" s="165">
+      <c r="AF3" s="181">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="AG3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="165">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="166">
+      <c r="AG3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="181">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="182">
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2938,7 @@
       <c r="B4" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="162" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="151" t="s">
@@ -2991,82 +2960,82 @@
       <c r="J4" s="158"/>
       <c r="K4" s="158"/>
       <c r="L4" s="159"/>
-      <c r="M4" s="167">
-        <v>0</v>
-      </c>
-      <c r="N4" s="168">
-        <v>0</v>
-      </c>
-      <c r="O4" s="168">
-        <v>0</v>
-      </c>
-      <c r="P4" s="168">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="168">
-        <v>0</v>
-      </c>
-      <c r="R4" s="168">
-        <v>0</v>
-      </c>
-      <c r="S4" s="168">
-        <v>0</v>
-      </c>
-      <c r="T4" s="168">
-        <v>0</v>
-      </c>
-      <c r="U4" s="168">
-        <v>0</v>
-      </c>
-      <c r="V4" s="168">
-        <v>0</v>
-      </c>
-      <c r="W4" s="168">
-        <v>0</v>
-      </c>
-      <c r="X4" s="168">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="168">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="168">
+      <c r="M4" s="183">
+        <v>0</v>
+      </c>
+      <c r="N4" s="184">
+        <v>0</v>
+      </c>
+      <c r="O4" s="184">
+        <v>0</v>
+      </c>
+      <c r="P4" s="184">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="184">
+        <v>0</v>
+      </c>
+      <c r="R4" s="184">
+        <v>0</v>
+      </c>
+      <c r="S4" s="184">
+        <v>0</v>
+      </c>
+      <c r="T4" s="184">
+        <v>0</v>
+      </c>
+      <c r="U4" s="184">
+        <v>0</v>
+      </c>
+      <c r="V4" s="184">
+        <v>0</v>
+      </c>
+      <c r="W4" s="184">
+        <v>0</v>
+      </c>
+      <c r="X4" s="184">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="184">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="184">
         <v>7.4999999999999963E-3</v>
       </c>
-      <c r="AD4" s="168">
+      <c r="AD4" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE4" s="168">
+      <c r="AE4" s="184">
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="AF4" s="168">
+      <c r="AF4" s="184">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="AG4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="168">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="169">
+      <c r="AG4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="184">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="185">
         <v>0</v>
       </c>
     </row>
@@ -3077,7 +3046,7 @@
       <c r="B5" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="160" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="133" t="s">
@@ -3099,82 +3068,82 @@
       <c r="J5" s="155"/>
       <c r="K5" s="155"/>
       <c r="L5" s="156"/>
-      <c r="M5" s="160">
-        <v>0</v>
-      </c>
-      <c r="N5" s="161">
-        <v>0</v>
-      </c>
-      <c r="O5" s="161">
-        <v>0</v>
-      </c>
-      <c r="P5" s="161">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="161">
-        <v>0</v>
-      </c>
-      <c r="R5" s="161">
-        <v>0</v>
-      </c>
-      <c r="S5" s="161">
-        <v>0</v>
-      </c>
-      <c r="T5" s="161">
-        <v>0</v>
-      </c>
-      <c r="U5" s="161">
-        <v>0</v>
-      </c>
-      <c r="V5" s="161">
-        <v>0</v>
-      </c>
-      <c r="W5" s="161">
-        <v>0</v>
-      </c>
-      <c r="X5" s="161">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="162">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="162">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="162">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="162">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="162">
+      <c r="M5" s="176">
+        <v>0</v>
+      </c>
+      <c r="N5" s="177">
+        <v>0</v>
+      </c>
+      <c r="O5" s="177">
+        <v>0</v>
+      </c>
+      <c r="P5" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="177">
+        <v>0</v>
+      </c>
+      <c r="R5" s="177">
+        <v>0</v>
+      </c>
+      <c r="S5" s="177">
+        <v>0</v>
+      </c>
+      <c r="T5" s="177">
+        <v>0</v>
+      </c>
+      <c r="U5" s="177">
+        <v>0</v>
+      </c>
+      <c r="V5" s="177">
+        <v>0</v>
+      </c>
+      <c r="W5" s="177">
+        <v>0</v>
+      </c>
+      <c r="X5" s="177">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="178">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="178">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="178">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="178">
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="AD5" s="162">
+      <c r="AD5" s="178">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE5" s="162">
+      <c r="AE5" s="178">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AF5" s="162">
+      <c r="AF5" s="178">
         <v>6.2857142857142848E-2</v>
       </c>
-      <c r="AG5" s="162">
+      <c r="AG5" s="178">
         <v>5.0714285714285705E-2</v>
       </c>
-      <c r="AH5" s="162">
+      <c r="AH5" s="178">
         <v>6.8571428571428575E-2</v>
       </c>
-      <c r="AI5" s="162">
+      <c r="AI5" s="178">
         <v>8.6428571428571424E-2</v>
       </c>
-      <c r="AJ5" s="162">
+      <c r="AJ5" s="178">
         <v>0.10428571428571427</v>
       </c>
-      <c r="AK5" s="162">
+      <c r="AK5" s="178">
         <v>0.12214285714285714</v>
       </c>
-      <c r="AL5" s="163">
+      <c r="AL5" s="179">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -3185,7 +3154,7 @@
       <c r="B6" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="161" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="143" t="s">
@@ -3207,82 +3176,82 @@
       <c r="J6" s="147"/>
       <c r="K6" s="147"/>
       <c r="L6" s="148"/>
-      <c r="M6" s="164">
-        <v>0</v>
-      </c>
-      <c r="N6" s="165">
-        <v>0</v>
-      </c>
-      <c r="O6" s="165">
-        <v>0</v>
-      </c>
-      <c r="P6" s="165">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="165">
-        <v>0</v>
-      </c>
-      <c r="R6" s="165">
-        <v>0</v>
-      </c>
-      <c r="S6" s="165">
-        <v>0</v>
-      </c>
-      <c r="T6" s="165">
-        <v>0</v>
-      </c>
-      <c r="U6" s="165">
-        <v>0</v>
-      </c>
-      <c r="V6" s="165">
-        <v>0</v>
-      </c>
-      <c r="W6" s="165">
-        <v>0</v>
-      </c>
-      <c r="X6" s="165">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="165">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="165">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="165">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="165">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="165">
+      <c r="M6" s="180">
+        <v>0</v>
+      </c>
+      <c r="N6" s="181">
+        <v>0</v>
+      </c>
+      <c r="O6" s="181">
+        <v>0</v>
+      </c>
+      <c r="P6" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="181">
+        <v>0</v>
+      </c>
+      <c r="R6" s="181">
+        <v>0</v>
+      </c>
+      <c r="S6" s="181">
+        <v>0</v>
+      </c>
+      <c r="T6" s="181">
+        <v>0</v>
+      </c>
+      <c r="U6" s="181">
+        <v>0</v>
+      </c>
+      <c r="V6" s="181">
+        <v>0</v>
+      </c>
+      <c r="W6" s="181">
+        <v>0</v>
+      </c>
+      <c r="X6" s="181">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="181">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="181">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="181">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="181">
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="AD6" s="165">
+      <c r="AD6" s="181">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE6" s="165">
+      <c r="AE6" s="181">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AF6" s="165">
+      <c r="AF6" s="181">
         <v>6.2857142857142848E-2</v>
       </c>
-      <c r="AG6" s="165">
+      <c r="AG6" s="181">
         <v>5.0714285714285705E-2</v>
       </c>
-      <c r="AH6" s="165">
+      <c r="AH6" s="181">
         <v>6.8571428571428575E-2</v>
       </c>
-      <c r="AI6" s="165">
+      <c r="AI6" s="181">
         <v>8.6428571428571424E-2</v>
       </c>
-      <c r="AJ6" s="165">
+      <c r="AJ6" s="181">
         <v>0.10428571428571427</v>
       </c>
-      <c r="AK6" s="165">
+      <c r="AK6" s="181">
         <v>0.12214285714285714</v>
       </c>
-      <c r="AL6" s="166">
+      <c r="AL6" s="182">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -3293,7 +3262,7 @@
       <c r="B7" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="162" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="151" t="s">
@@ -3315,93 +3284,93 @@
       <c r="J7" s="158"/>
       <c r="K7" s="158"/>
       <c r="L7" s="159"/>
-      <c r="M7" s="167">
-        <v>0</v>
-      </c>
-      <c r="N7" s="168">
-        <v>0</v>
-      </c>
-      <c r="O7" s="168">
-        <v>0</v>
-      </c>
-      <c r="P7" s="168">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="168">
-        <v>0</v>
-      </c>
-      <c r="R7" s="168">
-        <v>0</v>
-      </c>
-      <c r="S7" s="168">
-        <v>0</v>
-      </c>
-      <c r="T7" s="168">
-        <v>0</v>
-      </c>
-      <c r="U7" s="168">
-        <v>0</v>
-      </c>
-      <c r="V7" s="168">
-        <v>0</v>
-      </c>
-      <c r="W7" s="168">
-        <v>0</v>
-      </c>
-      <c r="X7" s="168">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="168">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="168">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="168">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="168">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="168">
+      <c r="M7" s="183">
+        <v>0</v>
+      </c>
+      <c r="N7" s="184">
+        <v>0</v>
+      </c>
+      <c r="O7" s="184">
+        <v>0</v>
+      </c>
+      <c r="P7" s="184">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="184">
+        <v>0</v>
+      </c>
+      <c r="R7" s="184">
+        <v>0</v>
+      </c>
+      <c r="S7" s="184">
+        <v>0</v>
+      </c>
+      <c r="T7" s="184">
+        <v>0</v>
+      </c>
+      <c r="U7" s="184">
+        <v>0</v>
+      </c>
+      <c r="V7" s="184">
+        <v>0</v>
+      </c>
+      <c r="W7" s="184">
+        <v>0</v>
+      </c>
+      <c r="X7" s="184">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="184">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="184">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="184">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="184">
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="AD7" s="168">
+      <c r="AD7" s="184">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE7" s="168">
+      <c r="AE7" s="184">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AF7" s="168">
+      <c r="AF7" s="184">
         <v>6.2857142857142848E-2</v>
       </c>
-      <c r="AG7" s="168">
+      <c r="AG7" s="184">
         <v>5.0714285714285705E-2</v>
       </c>
-      <c r="AH7" s="168">
+      <c r="AH7" s="184">
         <v>6.8571428571428575E-2</v>
       </c>
-      <c r="AI7" s="168">
+      <c r="AI7" s="184">
         <v>8.6428571428571424E-2</v>
       </c>
-      <c r="AJ7" s="168">
+      <c r="AJ7" s="184">
         <v>0.10428571428571427</v>
       </c>
-      <c r="AK7" s="168">
+      <c r="AK7" s="184">
         <v>0.12214285714285714</v>
       </c>
-      <c r="AL7" s="169">
+      <c r="AL7" s="185">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="160" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="133" t="s">
@@ -3423,93 +3392,93 @@
       <c r="J8" s="139"/>
       <c r="K8" s="139"/>
       <c r="L8" s="140"/>
-      <c r="M8" s="181">
+      <c r="M8" s="186">
         <v>1.2472000000000001</v>
       </c>
-      <c r="N8" s="182">
+      <c r="N8" s="187">
         <v>1.3540000000000001</v>
       </c>
-      <c r="O8" s="182">
+      <c r="O8" s="187">
         <v>1.4481999999999999</v>
       </c>
-      <c r="P8" s="182">
+      <c r="P8" s="187">
         <v>1.5746</v>
       </c>
-      <c r="Q8" s="182">
+      <c r="Q8" s="187">
         <v>1.7108000000000001</v>
       </c>
-      <c r="R8" s="182">
-        <v>1.9916</v>
-      </c>
-      <c r="S8" s="182">
+      <c r="R8" s="187">
+        <v>1.9966999999999999</v>
+      </c>
+      <c r="S8" s="187">
         <v>2.218</v>
       </c>
-      <c r="T8" s="182">
-        <v>2.3435000000000001</v>
-      </c>
-      <c r="U8" s="182">
+      <c r="T8" s="187">
+        <v>2.3477000000000001</v>
+      </c>
+      <c r="U8" s="187">
         <v>2.4618000000000002</v>
       </c>
-      <c r="V8" s="182">
-        <v>2.4779</v>
-      </c>
-      <c r="W8" s="182">
+      <c r="V8" s="187">
+        <v>2.4777999999999998</v>
+      </c>
+      <c r="W8" s="187">
         <v>2.4921000000000002</v>
       </c>
-      <c r="X8" s="182">
+      <c r="X8" s="187">
         <v>2.6398999999999999</v>
       </c>
-      <c r="Y8" s="182">
+      <c r="Y8" s="187">
         <v>2.7492000000000001</v>
       </c>
-      <c r="Z8" s="182">
+      <c r="Z8" s="187">
         <v>2.9081999999999999</v>
       </c>
-      <c r="AA8" s="182">
+      <c r="AA8" s="187">
         <v>3.0701000000000001</v>
       </c>
-      <c r="AB8" s="182">
+      <c r="AB8" s="187">
         <v>3.2347999999999999</v>
       </c>
-      <c r="AC8" s="182">
-        <v>3.4014000000000002</v>
-      </c>
-      <c r="AD8" s="182">
-        <v>3.5706000000000002</v>
-      </c>
-      <c r="AE8" s="182">
-        <v>3.7423999999999999</v>
-      </c>
-      <c r="AF8" s="182">
-        <v>3.9167999999999998</v>
-      </c>
-      <c r="AG8" s="182">
-        <v>4.0936000000000003</v>
-      </c>
-      <c r="AH8" s="182">
-        <v>4.1730999999999998</v>
-      </c>
-      <c r="AI8" s="182">
-        <v>4.2526999999999999</v>
-      </c>
-      <c r="AJ8" s="182">
-        <v>4.3323999999999998</v>
-      </c>
-      <c r="AK8" s="182">
-        <v>4.4120999999999997</v>
-      </c>
-      <c r="AL8" s="183">
-        <v>4.4904000000000002</v>
+      <c r="AC8" s="187">
+        <v>3.4015</v>
+      </c>
+      <c r="AD8" s="187">
+        <v>3.5707</v>
+      </c>
+      <c r="AE8" s="187">
+        <v>3.7425999999999999</v>
+      </c>
+      <c r="AF8" s="187">
+        <v>3.9171999999999998</v>
+      </c>
+      <c r="AG8" s="187">
+        <v>4.0940000000000003</v>
+      </c>
+      <c r="AH8" s="187">
+        <v>4.1736000000000004</v>
+      </c>
+      <c r="AI8" s="187">
+        <v>4.2533000000000003</v>
+      </c>
+      <c r="AJ8" s="187">
+        <v>4.3331</v>
+      </c>
+      <c r="AK8" s="187">
+        <v>4.4128999999999996</v>
+      </c>
+      <c r="AL8" s="188">
+        <v>4.4915000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="160" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="133" t="s">
@@ -3531,93 +3500,93 @@
       <c r="J9" s="139"/>
       <c r="K9" s="139"/>
       <c r="L9" s="140"/>
-      <c r="M9" s="181">
+      <c r="M9" s="186">
         <v>2.383</v>
       </c>
-      <c r="N9" s="182">
+      <c r="N9" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O9" s="182">
+      <c r="O9" s="187">
         <v>2.5461999999999998</v>
       </c>
-      <c r="P9" s="182">
+      <c r="P9" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q9" s="182">
+      <c r="Q9" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R9" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S9" s="182">
+      <c r="R9" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S9" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T9" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U9" s="182">
+      <c r="T9" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U9" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V9" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W9" s="182">
+      <c r="V9" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W9" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X9" s="182">
+      <c r="X9" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y9" s="182">
+      <c r="Y9" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z9" s="182">
+      <c r="Z9" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA9" s="182">
+      <c r="AA9" s="187">
         <v>3.5148999999999995</v>
       </c>
-      <c r="AB9" s="182">
+      <c r="AB9" s="187">
         <v>3.7035</v>
       </c>
-      <c r="AC9" s="182">
-        <v>3.8942999999999999</v>
-      </c>
-      <c r="AD9" s="182">
-        <v>4.0882000000000005</v>
-      </c>
-      <c r="AE9" s="182">
-        <v>4.2849000000000004</v>
-      </c>
-      <c r="AF9" s="182">
-        <v>4.4846999999999992</v>
-      </c>
-      <c r="AG9" s="182">
-        <v>4.6873000000000005</v>
-      </c>
-      <c r="AH9" s="182">
-        <v>4.7782999999999998</v>
-      </c>
-      <c r="AI9" s="182">
-        <v>4.8696000000000002</v>
-      </c>
-      <c r="AJ9" s="182">
-        <v>4.9608999999999996</v>
-      </c>
-      <c r="AK9" s="182">
-        <v>5.0522000000000009</v>
-      </c>
-      <c r="AL9" s="183">
-        <v>5.142100000000001</v>
+      <c r="AC9" s="187">
+        <v>3.8944000000000001</v>
+      </c>
+      <c r="AD9" s="187">
+        <v>4.0883000000000003</v>
+      </c>
+      <c r="AE9" s="187">
+        <v>4.2850999999999999</v>
+      </c>
+      <c r="AF9" s="187">
+        <v>4.4851000000000001</v>
+      </c>
+      <c r="AG9" s="187">
+        <v>4.6877000000000004</v>
+      </c>
+      <c r="AH9" s="187">
+        <v>4.7788000000000004</v>
+      </c>
+      <c r="AI9" s="187">
+        <v>4.8702000000000005</v>
+      </c>
+      <c r="AJ9" s="187">
+        <v>4.9616000000000007</v>
+      </c>
+      <c r="AK9" s="187">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="AL9" s="188">
+        <v>5.1432000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="160" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="133" t="s">
@@ -3639,93 +3608,93 @@
       <c r="J10" s="139"/>
       <c r="K10" s="139"/>
       <c r="L10" s="140"/>
-      <c r="M10" s="181">
+      <c r="M10" s="186">
         <v>2.383</v>
       </c>
-      <c r="N10" s="182">
+      <c r="N10" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O10" s="182">
+      <c r="O10" s="187">
         <v>2.5461999999999998</v>
       </c>
-      <c r="P10" s="182">
+      <c r="P10" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q10" s="182">
+      <c r="Q10" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R10" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S10" s="182">
+      <c r="R10" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S10" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T10" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U10" s="182">
+      <c r="T10" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U10" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V10" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W10" s="182">
+      <c r="V10" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W10" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X10" s="182">
+      <c r="X10" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y10" s="182">
+      <c r="Y10" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z10" s="182">
+      <c r="Z10" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA10" s="182">
+      <c r="AA10" s="187">
         <v>3.5148999999999995</v>
       </c>
-      <c r="AB10" s="182">
+      <c r="AB10" s="187">
         <v>3.7035</v>
       </c>
-      <c r="AC10" s="182">
-        <v>3.8942999999999999</v>
-      </c>
-      <c r="AD10" s="182">
-        <v>4.0882000000000005</v>
-      </c>
-      <c r="AE10" s="182">
-        <v>4.2849000000000004</v>
-      </c>
-      <c r="AF10" s="182">
-        <v>4.4846999999999992</v>
-      </c>
-      <c r="AG10" s="182">
-        <v>4.6873000000000005</v>
-      </c>
-      <c r="AH10" s="182">
-        <v>4.7782999999999998</v>
-      </c>
-      <c r="AI10" s="182">
-        <v>4.8696000000000002</v>
-      </c>
-      <c r="AJ10" s="182">
-        <v>4.9608999999999996</v>
-      </c>
-      <c r="AK10" s="182">
-        <v>5.0522000000000009</v>
-      </c>
-      <c r="AL10" s="183">
-        <v>5.142100000000001</v>
+      <c r="AC10" s="187">
+        <v>3.8944000000000001</v>
+      </c>
+      <c r="AD10" s="187">
+        <v>4.0883000000000003</v>
+      </c>
+      <c r="AE10" s="187">
+        <v>4.2850999999999999</v>
+      </c>
+      <c r="AF10" s="187">
+        <v>4.4851000000000001</v>
+      </c>
+      <c r="AG10" s="187">
+        <v>4.6877000000000004</v>
+      </c>
+      <c r="AH10" s="187">
+        <v>4.7788000000000004</v>
+      </c>
+      <c r="AI10" s="187">
+        <v>4.8702000000000005</v>
+      </c>
+      <c r="AJ10" s="187">
+        <v>4.9616000000000007</v>
+      </c>
+      <c r="AK10" s="187">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="AL10" s="188">
+        <v>5.1432000000000011</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="160" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="133" t="s">
@@ -3747,93 +3716,93 @@
       <c r="J11" s="139"/>
       <c r="K11" s="139"/>
       <c r="L11" s="140"/>
-      <c r="M11" s="181">
+      <c r="M11" s="186">
         <v>2.383</v>
       </c>
-      <c r="N11" s="182">
+      <c r="N11" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O11" s="182">
+      <c r="O11" s="187">
         <v>2.5461999999999998</v>
       </c>
-      <c r="P11" s="182">
+      <c r="P11" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q11" s="182">
+      <c r="Q11" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R11" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S11" s="182">
+      <c r="R11" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S11" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T11" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U11" s="182">
+      <c r="T11" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U11" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V11" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W11" s="182">
+      <c r="V11" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W11" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X11" s="182">
+      <c r="X11" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y11" s="182">
+      <c r="Y11" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z11" s="182">
+      <c r="Z11" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA11" s="182">
+      <c r="AA11" s="187">
         <v>3.5148999999999995</v>
       </c>
-      <c r="AB11" s="182">
+      <c r="AB11" s="187">
         <v>3.7035</v>
       </c>
-      <c r="AC11" s="182">
-        <v>3.8942999999999999</v>
-      </c>
-      <c r="AD11" s="182">
-        <v>4.0882000000000005</v>
-      </c>
-      <c r="AE11" s="182">
-        <v>4.2849000000000004</v>
-      </c>
-      <c r="AF11" s="182">
-        <v>4.4846999999999992</v>
-      </c>
-      <c r="AG11" s="182">
-        <v>4.6873000000000005</v>
-      </c>
-      <c r="AH11" s="182">
-        <v>4.7782999999999998</v>
-      </c>
-      <c r="AI11" s="182">
-        <v>4.8696000000000002</v>
-      </c>
-      <c r="AJ11" s="182">
-        <v>4.9608999999999996</v>
-      </c>
-      <c r="AK11" s="182">
-        <v>5.0522000000000009</v>
-      </c>
-      <c r="AL11" s="183">
-        <v>5.142100000000001</v>
+      <c r="AC11" s="187">
+        <v>3.8944000000000001</v>
+      </c>
+      <c r="AD11" s="187">
+        <v>4.0883000000000003</v>
+      </c>
+      <c r="AE11" s="187">
+        <v>4.2850999999999999</v>
+      </c>
+      <c r="AF11" s="187">
+        <v>4.4851000000000001</v>
+      </c>
+      <c r="AG11" s="187">
+        <v>4.6877000000000004</v>
+      </c>
+      <c r="AH11" s="187">
+        <v>4.7788000000000004</v>
+      </c>
+      <c r="AI11" s="187">
+        <v>4.8702000000000005</v>
+      </c>
+      <c r="AJ11" s="187">
+        <v>4.9616000000000007</v>
+      </c>
+      <c r="AK11" s="187">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="AL11" s="188">
+        <v>5.1432000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="160" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="133" t="s">
@@ -3855,93 +3824,93 @@
       <c r="J12" s="139"/>
       <c r="K12" s="139"/>
       <c r="L12" s="140"/>
-      <c r="M12" s="181">
+      <c r="M12" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N12" s="182">
+      <c r="N12" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O12" s="182">
+      <c r="O12" s="187">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P12" s="182">
+      <c r="P12" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q12" s="182">
+      <c r="Q12" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R12" s="182">
+      <c r="R12" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S12" s="182">
+      <c r="S12" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T12" s="182">
+      <c r="T12" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U12" s="182">
+      <c r="U12" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V12" s="182">
+      <c r="V12" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W12" s="182">
+      <c r="W12" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X12" s="182">
+      <c r="X12" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y12" s="182">
+      <c r="Y12" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z12" s="182">
+      <c r="Z12" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA12" s="182">
+      <c r="AA12" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB12" s="182">
+      <c r="AB12" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC12" s="182">
+      <c r="AC12" s="187">
         <v>4.2800000000000102E-2</v>
       </c>
-      <c r="AD12" s="182">
+      <c r="AD12" s="187">
         <v>4.5900000000000205E-2</v>
       </c>
-      <c r="AE12" s="182">
+      <c r="AE12" s="187">
         <v>4.9200000000000306E-2</v>
       </c>
-      <c r="AF12" s="182">
+      <c r="AF12" s="187">
         <v>5.2400000000000405E-2</v>
       </c>
-      <c r="AG12" s="182">
+      <c r="AG12" s="187">
         <v>5.5699999999999618E-2</v>
       </c>
-      <c r="AH12" s="182">
-        <v>5.779999999999972E-2</v>
-      </c>
-      <c r="AI12" s="182">
+      <c r="AH12" s="187">
+        <v>5.7800000000000608E-2</v>
+      </c>
+      <c r="AI12" s="187">
         <v>5.9799999999999819E-2</v>
       </c>
-      <c r="AJ12" s="182">
-        <v>6.189999999999992E-2</v>
-      </c>
-      <c r="AK12" s="182">
+      <c r="AJ12" s="187">
+        <v>6.1900000000000809E-2</v>
+      </c>
+      <c r="AK12" s="187">
         <v>6.4000000000000029E-2</v>
       </c>
-      <c r="AL12" s="183">
+      <c r="AL12" s="188">
         <v>6.8700000000000289E-2</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="160" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="133" t="s">
@@ -3963,93 +3932,93 @@
       <c r="J13" s="139"/>
       <c r="K13" s="139"/>
       <c r="L13" s="140"/>
-      <c r="M13" s="181">
+      <c r="M13" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N13" s="182">
+      <c r="N13" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O13" s="182">
+      <c r="O13" s="187">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P13" s="182">
+      <c r="P13" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q13" s="182">
+      <c r="Q13" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R13" s="182">
+      <c r="R13" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S13" s="182">
+      <c r="S13" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T13" s="182">
+      <c r="T13" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U13" s="182">
+      <c r="U13" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V13" s="182">
+      <c r="V13" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W13" s="182">
+      <c r="W13" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X13" s="182">
+      <c r="X13" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y13" s="182">
+      <c r="Y13" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z13" s="182">
+      <c r="Z13" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA13" s="182">
+      <c r="AA13" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB13" s="182">
+      <c r="AB13" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC13" s="182">
+      <c r="AC13" s="187">
         <v>4.2800000000000102E-2</v>
       </c>
-      <c r="AD13" s="182">
+      <c r="AD13" s="187">
         <v>4.5900000000000205E-2</v>
       </c>
-      <c r="AE13" s="182">
+      <c r="AE13" s="187">
         <v>4.9200000000000306E-2</v>
       </c>
-      <c r="AF13" s="182">
+      <c r="AF13" s="187">
         <v>5.2400000000000405E-2</v>
       </c>
-      <c r="AG13" s="182">
+      <c r="AG13" s="187">
         <v>5.5699999999999618E-2</v>
       </c>
-      <c r="AH13" s="182">
-        <v>5.779999999999972E-2</v>
-      </c>
-      <c r="AI13" s="182">
+      <c r="AH13" s="187">
+        <v>5.7800000000000608E-2</v>
+      </c>
+      <c r="AI13" s="187">
         <v>5.9799999999999819E-2</v>
       </c>
-      <c r="AJ13" s="182">
-        <v>6.189999999999992E-2</v>
-      </c>
-      <c r="AK13" s="182">
+      <c r="AJ13" s="187">
+        <v>6.1900000000000809E-2</v>
+      </c>
+      <c r="AK13" s="187">
         <v>6.4000000000000029E-2</v>
       </c>
-      <c r="AL13" s="183">
+      <c r="AL13" s="188">
         <v>6.8700000000000289E-2</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="160" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="133" t="s">
@@ -4071,93 +4040,93 @@
       <c r="J14" s="139"/>
       <c r="K14" s="139"/>
       <c r="L14" s="140"/>
-      <c r="M14" s="181">
+      <c r="M14" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N14" s="182">
+      <c r="N14" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O14" s="182">
+      <c r="O14" s="187">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P14" s="182">
+      <c r="P14" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q14" s="182">
+      <c r="Q14" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R14" s="182">
+      <c r="R14" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S14" s="182">
+      <c r="S14" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T14" s="182">
+      <c r="T14" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U14" s="182">
+      <c r="U14" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V14" s="182">
+      <c r="V14" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W14" s="182">
+      <c r="W14" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X14" s="182">
+      <c r="X14" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y14" s="182">
+      <c r="Y14" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z14" s="182">
+      <c r="Z14" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA14" s="182">
+      <c r="AA14" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB14" s="182">
+      <c r="AB14" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC14" s="182">
+      <c r="AC14" s="187">
         <v>4.2800000000000102E-2</v>
       </c>
-      <c r="AD14" s="182">
+      <c r="AD14" s="187">
         <v>4.5900000000000205E-2</v>
       </c>
-      <c r="AE14" s="182">
+      <c r="AE14" s="187">
         <v>4.9200000000000306E-2</v>
       </c>
-      <c r="AF14" s="182">
+      <c r="AF14" s="187">
         <v>5.2400000000000405E-2</v>
       </c>
-      <c r="AG14" s="182">
+      <c r="AG14" s="187">
         <v>5.5699999999999618E-2</v>
       </c>
-      <c r="AH14" s="182">
-        <v>5.779999999999972E-2</v>
-      </c>
-      <c r="AI14" s="182">
+      <c r="AH14" s="187">
+        <v>5.7800000000000608E-2</v>
+      </c>
+      <c r="AI14" s="187">
         <v>5.9799999999999819E-2</v>
       </c>
-      <c r="AJ14" s="182">
-        <v>6.189999999999992E-2</v>
-      </c>
-      <c r="AK14" s="182">
+      <c r="AJ14" s="187">
+        <v>6.1900000000000809E-2</v>
+      </c>
+      <c r="AK14" s="187">
         <v>6.4000000000000029E-2</v>
       </c>
-      <c r="AL14" s="183">
+      <c r="AL14" s="188">
         <v>6.8700000000000289E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="160" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="133" t="s">
@@ -4179,93 +4148,93 @@
       <c r="J15" s="139"/>
       <c r="K15" s="139"/>
       <c r="L15" s="140"/>
-      <c r="M15" s="181">
+      <c r="M15" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N15" s="182">
+      <c r="N15" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O15" s="182">
+      <c r="O15" s="187">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P15" s="182">
+      <c r="P15" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q15" s="182">
+      <c r="Q15" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R15" s="182">
+      <c r="R15" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S15" s="182">
+      <c r="S15" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T15" s="182">
+      <c r="T15" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U15" s="182">
+      <c r="U15" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V15" s="182">
+      <c r="V15" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W15" s="182">
+      <c r="W15" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X15" s="182">
+      <c r="X15" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y15" s="182">
+      <c r="Y15" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z15" s="182">
+      <c r="Z15" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA15" s="182">
+      <c r="AA15" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB15" s="182">
+      <c r="AB15" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC15" s="182">
+      <c r="AC15" s="187">
         <v>4.2800000000000102E-2</v>
       </c>
-      <c r="AD15" s="182">
+      <c r="AD15" s="187">
         <v>4.5900000000000205E-2</v>
       </c>
-      <c r="AE15" s="182">
+      <c r="AE15" s="187">
         <v>4.9200000000000306E-2</v>
       </c>
-      <c r="AF15" s="182">
+      <c r="AF15" s="187">
         <v>5.2400000000000405E-2</v>
       </c>
-      <c r="AG15" s="182">
+      <c r="AG15" s="187">
         <v>5.5699999999999618E-2</v>
       </c>
-      <c r="AH15" s="182">
-        <v>5.779999999999972E-2</v>
-      </c>
-      <c r="AI15" s="182">
+      <c r="AH15" s="187">
+        <v>5.7800000000000608E-2</v>
+      </c>
+      <c r="AI15" s="187">
         <v>5.9799999999999819E-2</v>
       </c>
-      <c r="AJ15" s="182">
-        <v>6.189999999999992E-2</v>
-      </c>
-      <c r="AK15" s="182">
+      <c r="AJ15" s="187">
+        <v>6.1900000000000809E-2</v>
+      </c>
+      <c r="AK15" s="187">
         <v>6.4000000000000029E-2</v>
       </c>
-      <c r="AL15" s="183">
+      <c r="AL15" s="188">
         <v>6.8700000000000289E-2</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="189" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="133" t="s">
@@ -4287,93 +4256,93 @@
       <c r="J16" s="139"/>
       <c r="K16" s="139"/>
       <c r="L16" s="140"/>
-      <c r="M16" s="174">
+      <c r="M16" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N16" s="175">
+      <c r="N16" s="187">
         <v>1.7401999999999993</v>
       </c>
-      <c r="O16" s="175">
+      <c r="O16" s="187">
         <v>1.7946999999999997</v>
       </c>
-      <c r="P16" s="175">
+      <c r="P16" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q16" s="175">
+      <c r="Q16" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R16" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S16" s="175">
+      <c r="R16" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S16" s="187">
         <v>2.0871999999999997</v>
       </c>
-      <c r="T16" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U16" s="175">
+      <c r="T16" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U16" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V16" s="175">
-        <v>2.0895000000000006</v>
-      </c>
-      <c r="W16" s="175">
+      <c r="V16" s="187">
+        <v>2.0896000000000008</v>
+      </c>
+      <c r="W16" s="187">
         <v>2.0977999999999999</v>
       </c>
-      <c r="X16" s="175">
+      <c r="X16" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y16" s="175">
+      <c r="Y16" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z16" s="175">
+      <c r="Z16" s="187">
         <v>2.3653000000000008</v>
       </c>
-      <c r="AA16" s="175">
+      <c r="AA16" s="187">
         <v>2.496999999999999</v>
       </c>
-      <c r="AB16" s="175">
+      <c r="AB16" s="187">
         <v>2.6309000000000009</v>
       </c>
-      <c r="AC16" s="175">
-        <v>2.7667000000000002</v>
-      </c>
-      <c r="AD16" s="175">
-        <v>2.9044999999999992</v>
-      </c>
-      <c r="AE16" s="175">
-        <v>3.0444000000000004</v>
-      </c>
-      <c r="AF16" s="175">
-        <v>3.1863999999999995</v>
-      </c>
-      <c r="AG16" s="175">
-        <v>3.33</v>
-      </c>
-      <c r="AH16" s="175">
-        <v>3.394499999999999</v>
-      </c>
-      <c r="AI16" s="175">
-        <v>3.4591000000000016</v>
-      </c>
-      <c r="AJ16" s="175">
-        <v>3.5234999999999994</v>
-      </c>
-      <c r="AK16" s="175">
-        <v>3.5879000000000008</v>
-      </c>
-      <c r="AL16" s="176">
-        <v>3.6510000000000007</v>
+      <c r="AC16" s="187">
+        <v>2.7666000000000004</v>
+      </c>
+      <c r="AD16" s="187">
+        <v>2.9043999999999994</v>
+      </c>
+      <c r="AE16" s="187">
+        <v>3.0442000000000009</v>
+      </c>
+      <c r="AF16" s="187">
+        <v>3.1859999999999995</v>
+      </c>
+      <c r="AG16" s="187">
+        <v>3.3296000000000001</v>
+      </c>
+      <c r="AH16" s="187">
+        <v>3.3939999999999984</v>
+      </c>
+      <c r="AI16" s="187">
+        <v>3.4585000000000012</v>
+      </c>
+      <c r="AJ16" s="187">
+        <v>3.5227999999999975</v>
+      </c>
+      <c r="AK16" s="187">
+        <v>3.5871000000000008</v>
+      </c>
+      <c r="AL16" s="188">
+        <v>3.6499000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="160" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="133" t="s">
@@ -4395,93 +4364,93 @@
       <c r="J17" s="139"/>
       <c r="K17" s="139"/>
       <c r="L17" s="140"/>
-      <c r="M17" s="174">
+      <c r="M17" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N17" s="175">
+      <c r="N17" s="187">
         <v>1.7401999999999993</v>
       </c>
-      <c r="O17" s="175">
+      <c r="O17" s="187">
         <v>1.7946999999999997</v>
       </c>
-      <c r="P17" s="175">
+      <c r="P17" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q17" s="175">
+      <c r="Q17" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R17" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S17" s="175">
+      <c r="R17" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S17" s="187">
         <v>2.0871999999999997</v>
       </c>
-      <c r="T17" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U17" s="175">
+      <c r="T17" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U17" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V17" s="175">
-        <v>2.0895000000000006</v>
-      </c>
-      <c r="W17" s="175">
+      <c r="V17" s="187">
+        <v>2.0896000000000008</v>
+      </c>
+      <c r="W17" s="187">
         <v>2.0977999999999999</v>
       </c>
-      <c r="X17" s="175">
+      <c r="X17" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y17" s="175">
+      <c r="Y17" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z17" s="175">
+      <c r="Z17" s="187">
         <v>2.3653000000000008</v>
       </c>
-      <c r="AA17" s="175">
+      <c r="AA17" s="187">
         <v>2.496999999999999</v>
       </c>
-      <c r="AB17" s="175">
+      <c r="AB17" s="187">
         <v>2.6309000000000009</v>
       </c>
-      <c r="AC17" s="175">
-        <v>2.7667000000000002</v>
-      </c>
-      <c r="AD17" s="175">
-        <v>2.9044999999999992</v>
-      </c>
-      <c r="AE17" s="175">
-        <v>3.0444000000000004</v>
-      </c>
-      <c r="AF17" s="175">
-        <v>3.1863999999999995</v>
-      </c>
-      <c r="AG17" s="175">
-        <v>3.33</v>
-      </c>
-      <c r="AH17" s="175">
-        <v>3.394499999999999</v>
-      </c>
-      <c r="AI17" s="175">
-        <v>3.4591000000000016</v>
-      </c>
-      <c r="AJ17" s="175">
-        <v>3.5234999999999994</v>
-      </c>
-      <c r="AK17" s="175">
-        <v>3.5879000000000008</v>
-      </c>
-      <c r="AL17" s="176">
-        <v>3.6510000000000007</v>
+      <c r="AC17" s="187">
+        <v>2.7666000000000004</v>
+      </c>
+      <c r="AD17" s="187">
+        <v>2.9043999999999994</v>
+      </c>
+      <c r="AE17" s="187">
+        <v>3.0442000000000009</v>
+      </c>
+      <c r="AF17" s="187">
+        <v>3.1859999999999995</v>
+      </c>
+      <c r="AG17" s="187">
+        <v>3.3296000000000001</v>
+      </c>
+      <c r="AH17" s="187">
+        <v>3.3939999999999984</v>
+      </c>
+      <c r="AI17" s="187">
+        <v>3.4585000000000012</v>
+      </c>
+      <c r="AJ17" s="187">
+        <v>3.5227999999999975</v>
+      </c>
+      <c r="AK17" s="187">
+        <v>3.5871000000000008</v>
+      </c>
+      <c r="AL17" s="188">
+        <v>3.6499000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="160" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="133" t="s">
@@ -4503,93 +4472,93 @@
       <c r="J18" s="139"/>
       <c r="K18" s="139"/>
       <c r="L18" s="140"/>
-      <c r="M18" s="174">
+      <c r="M18" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N18" s="175">
+      <c r="N18" s="187">
         <v>1.7401999999999993</v>
       </c>
-      <c r="O18" s="175">
+      <c r="O18" s="187">
         <v>1.7946999999999997</v>
       </c>
-      <c r="P18" s="175">
+      <c r="P18" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q18" s="175">
+      <c r="Q18" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R18" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S18" s="175">
+      <c r="R18" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S18" s="187">
         <v>2.0871999999999997</v>
       </c>
-      <c r="T18" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U18" s="175">
+      <c r="T18" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U18" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V18" s="175">
-        <v>2.0895000000000006</v>
-      </c>
-      <c r="W18" s="175">
+      <c r="V18" s="187">
+        <v>2.0896000000000008</v>
+      </c>
+      <c r="W18" s="187">
         <v>2.0977999999999999</v>
       </c>
-      <c r="X18" s="175">
+      <c r="X18" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y18" s="175">
+      <c r="Y18" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z18" s="175">
+      <c r="Z18" s="187">
         <v>2.3653000000000008</v>
       </c>
-      <c r="AA18" s="175">
+      <c r="AA18" s="187">
         <v>2.496999999999999</v>
       </c>
-      <c r="AB18" s="175">
+      <c r="AB18" s="187">
         <v>2.6309000000000009</v>
       </c>
-      <c r="AC18" s="175">
-        <v>2.7667000000000002</v>
-      </c>
-      <c r="AD18" s="175">
-        <v>2.9044999999999992</v>
-      </c>
-      <c r="AE18" s="175">
-        <v>3.0444000000000004</v>
-      </c>
-      <c r="AF18" s="175">
-        <v>3.1863999999999995</v>
-      </c>
-      <c r="AG18" s="175">
-        <v>3.33</v>
-      </c>
-      <c r="AH18" s="175">
-        <v>3.394499999999999</v>
-      </c>
-      <c r="AI18" s="175">
-        <v>3.4591000000000016</v>
-      </c>
-      <c r="AJ18" s="175">
-        <v>3.5234999999999994</v>
-      </c>
-      <c r="AK18" s="175">
-        <v>3.5879000000000008</v>
-      </c>
-      <c r="AL18" s="176">
-        <v>3.6510000000000007</v>
+      <c r="AC18" s="187">
+        <v>2.7666000000000004</v>
+      </c>
+      <c r="AD18" s="187">
+        <v>2.9043999999999994</v>
+      </c>
+      <c r="AE18" s="187">
+        <v>3.0442000000000009</v>
+      </c>
+      <c r="AF18" s="187">
+        <v>3.1859999999999995</v>
+      </c>
+      <c r="AG18" s="187">
+        <v>3.3296000000000001</v>
+      </c>
+      <c r="AH18" s="187">
+        <v>3.3939999999999984</v>
+      </c>
+      <c r="AI18" s="187">
+        <v>3.4585000000000012</v>
+      </c>
+      <c r="AJ18" s="187">
+        <v>3.5227999999999975</v>
+      </c>
+      <c r="AK18" s="187">
+        <v>3.5871000000000008</v>
+      </c>
+      <c r="AL18" s="188">
+        <v>3.6499000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="160" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="133" t="s">
@@ -4611,93 +4580,93 @@
       <c r="J19" s="139"/>
       <c r="K19" s="139"/>
       <c r="L19" s="140"/>
-      <c r="M19" s="174">
+      <c r="M19" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N19" s="175">
+      <c r="N19" s="187">
         <v>1.7401999999999993</v>
       </c>
-      <c r="O19" s="175">
+      <c r="O19" s="187">
         <v>1.7946999999999997</v>
       </c>
-      <c r="P19" s="175">
+      <c r="P19" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q19" s="175">
+      <c r="Q19" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R19" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S19" s="175">
+      <c r="R19" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S19" s="187">
         <v>2.0871999999999997</v>
       </c>
-      <c r="T19" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U19" s="175">
+      <c r="T19" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U19" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V19" s="175">
-        <v>2.0895000000000006</v>
-      </c>
-      <c r="W19" s="175">
+      <c r="V19" s="187">
+        <v>2.0896000000000008</v>
+      </c>
+      <c r="W19" s="187">
         <v>2.0977999999999999</v>
       </c>
-      <c r="X19" s="175">
+      <c r="X19" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y19" s="175">
+      <c r="Y19" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z19" s="175">
+      <c r="Z19" s="187">
         <v>2.3653000000000008</v>
       </c>
-      <c r="AA19" s="175">
+      <c r="AA19" s="187">
         <v>2.496999999999999</v>
       </c>
-      <c r="AB19" s="175">
+      <c r="AB19" s="187">
         <v>2.6309000000000009</v>
       </c>
-      <c r="AC19" s="175">
-        <v>2.7667000000000002</v>
-      </c>
-      <c r="AD19" s="175">
-        <v>2.9044999999999992</v>
-      </c>
-      <c r="AE19" s="175">
-        <v>3.0444000000000004</v>
-      </c>
-      <c r="AF19" s="175">
-        <v>3.1863999999999995</v>
-      </c>
-      <c r="AG19" s="175">
-        <v>3.33</v>
-      </c>
-      <c r="AH19" s="175">
-        <v>3.394499999999999</v>
-      </c>
-      <c r="AI19" s="175">
-        <v>3.4591000000000016</v>
-      </c>
-      <c r="AJ19" s="175">
-        <v>3.5234999999999994</v>
-      </c>
-      <c r="AK19" s="175">
-        <v>3.5879000000000008</v>
-      </c>
-      <c r="AL19" s="176">
-        <v>3.6510000000000007</v>
+      <c r="AC19" s="187">
+        <v>2.7666000000000004</v>
+      </c>
+      <c r="AD19" s="187">
+        <v>2.9043999999999994</v>
+      </c>
+      <c r="AE19" s="187">
+        <v>3.0442000000000009</v>
+      </c>
+      <c r="AF19" s="187">
+        <v>3.1859999999999995</v>
+      </c>
+      <c r="AG19" s="187">
+        <v>3.3296000000000001</v>
+      </c>
+      <c r="AH19" s="187">
+        <v>3.3939999999999984</v>
+      </c>
+      <c r="AI19" s="187">
+        <v>3.4585000000000012</v>
+      </c>
+      <c r="AJ19" s="187">
+        <v>3.5227999999999975</v>
+      </c>
+      <c r="AK19" s="187">
+        <v>3.5871000000000008</v>
+      </c>
+      <c r="AL19" s="188">
+        <v>3.6499000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="133" t="s">
@@ -4719,93 +4688,93 @@
       <c r="J20" s="155"/>
       <c r="K20" s="155"/>
       <c r="L20" s="156"/>
-      <c r="M20" s="185">
+      <c r="M20" s="176">
         <v>4.0671999999999997</v>
       </c>
-      <c r="N20" s="186">
+      <c r="N20" s="177">
         <v>4.2162000000000006</v>
       </c>
-      <c r="O20" s="186">
+      <c r="O20" s="177">
         <v>4.3482000000000003</v>
       </c>
-      <c r="P20" s="186">
+      <c r="P20" s="177">
         <v>4.9634</v>
       </c>
-      <c r="Q20" s="186">
+      <c r="Q20" s="177">
         <v>5.6248000000000005</v>
       </c>
-      <c r="R20" s="186">
+      <c r="R20" s="177">
         <v>5.2972000000000001</v>
       </c>
-      <c r="S20" s="186">
+      <c r="S20" s="177">
         <v>5.0569000000000006</v>
       </c>
-      <c r="T20" s="186">
+      <c r="T20" s="177">
         <v>5.0416000000000007</v>
       </c>
-      <c r="U20" s="186">
+      <c r="U20" s="177">
         <v>5.0421000000000005</v>
       </c>
-      <c r="V20" s="186">
+      <c r="V20" s="177">
         <v>5.0625</v>
       </c>
-      <c r="W20" s="186">
+      <c r="W20" s="177">
         <v>5.0825999999999993</v>
       </c>
-      <c r="X20" s="186">
+      <c r="X20" s="177">
         <v>5.2141000000000002</v>
       </c>
-      <c r="Y20" s="187">
+      <c r="Y20" s="178">
         <v>5.4172000000000002</v>
       </c>
-      <c r="Z20" s="187">
+      <c r="Z20" s="178">
         <v>5.7306999999999997</v>
       </c>
-      <c r="AA20" s="187">
+      <c r="AA20" s="178">
         <v>6.0497999999999994</v>
       </c>
-      <c r="AB20" s="187">
+      <c r="AB20" s="178">
         <v>6.3742000000000001</v>
       </c>
-      <c r="AC20" s="187">
+      <c r="AC20" s="178">
         <v>6.7037000000000004</v>
       </c>
-      <c r="AD20" s="187">
-        <v>7.0382999999999996</v>
-      </c>
-      <c r="AE20" s="187">
-        <v>7.3780000000000001</v>
-      </c>
-      <c r="AF20" s="187">
-        <v>7.7228000000000003</v>
-      </c>
-      <c r="AG20" s="187">
-        <v>8.0718999999999994</v>
-      </c>
-      <c r="AH20" s="187">
-        <v>8.2294</v>
-      </c>
-      <c r="AI20" s="187">
-        <v>8.3871000000000002</v>
-      </c>
-      <c r="AJ20" s="187">
-        <v>8.5447000000000006</v>
-      </c>
-      <c r="AK20" s="187">
-        <v>8.7024000000000008</v>
-      </c>
-      <c r="AL20" s="188">
-        <v>8.86</v>
+      <c r="AD20" s="178">
+        <v>7.0384000000000002</v>
+      </c>
+      <c r="AE20" s="178">
+        <v>7.3780999999999999</v>
+      </c>
+      <c r="AF20" s="178">
+        <v>7.7229000000000001</v>
+      </c>
+      <c r="AG20" s="178">
+        <v>8.0719999999999992</v>
+      </c>
+      <c r="AH20" s="178">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="AI20" s="178">
+        <v>8.3872999999999998</v>
+      </c>
+      <c r="AJ20" s="178">
+        <v>8.5449999999999999</v>
+      </c>
+      <c r="AK20" s="178">
+        <v>8.7027000000000001</v>
+      </c>
+      <c r="AL20" s="179">
+        <v>8.8603000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="160" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="133" t="s">
@@ -4827,93 +4796,93 @@
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
       <c r="L21" s="140"/>
-      <c r="M21" s="181">
+      <c r="M21" s="186">
         <v>1.2472000000000001</v>
       </c>
-      <c r="N21" s="182">
+      <c r="N21" s="187">
         <v>1.3540000000000001</v>
       </c>
-      <c r="O21" s="182">
+      <c r="O21" s="187">
         <v>1.4481999999999999</v>
       </c>
-      <c r="P21" s="182">
+      <c r="P21" s="187">
         <v>1.5746</v>
       </c>
-      <c r="Q21" s="182">
+      <c r="Q21" s="187">
         <v>1.7108000000000001</v>
       </c>
-      <c r="R21" s="182">
-        <v>1.9916</v>
-      </c>
-      <c r="S21" s="182">
+      <c r="R21" s="187">
+        <v>1.9966999999999999</v>
+      </c>
+      <c r="S21" s="187">
         <v>2.218</v>
       </c>
-      <c r="T21" s="182">
-        <v>2.3435000000000001</v>
-      </c>
-      <c r="U21" s="182">
+      <c r="T21" s="187">
+        <v>2.3477000000000001</v>
+      </c>
+      <c r="U21" s="187">
         <v>2.4618000000000002</v>
       </c>
-      <c r="V21" s="182">
-        <v>2.4779</v>
-      </c>
-      <c r="W21" s="182">
+      <c r="V21" s="187">
+        <v>2.4777999999999998</v>
+      </c>
+      <c r="W21" s="187">
         <v>2.4921000000000002</v>
       </c>
-      <c r="X21" s="182">
+      <c r="X21" s="187">
         <v>2.6398999999999999</v>
       </c>
-      <c r="Y21" s="182">
+      <c r="Y21" s="187">
         <v>2.7492000000000001</v>
       </c>
-      <c r="Z21" s="182">
+      <c r="Z21" s="187">
         <v>2.9081999999999999</v>
       </c>
-      <c r="AA21" s="182">
+      <c r="AA21" s="187">
         <v>3.0701000000000001</v>
       </c>
-      <c r="AB21" s="182">
+      <c r="AB21" s="187">
         <v>3.2347999999999999</v>
       </c>
-      <c r="AC21" s="182">
-        <v>3.4001999999999999</v>
-      </c>
-      <c r="AD21" s="182">
-        <v>3.5682999999999998</v>
-      </c>
-      <c r="AE21" s="182">
-        <v>3.7391999999999999</v>
-      </c>
-      <c r="AF21" s="182">
-        <v>3.9127999999999998</v>
-      </c>
-      <c r="AG21" s="182">
-        <v>4.0887000000000002</v>
-      </c>
-      <c r="AH21" s="182">
-        <v>4.1673999999999998</v>
-      </c>
-      <c r="AI21" s="182">
-        <v>4.2462999999999997</v>
-      </c>
-      <c r="AJ21" s="182">
-        <v>4.3254000000000001</v>
-      </c>
-      <c r="AK21" s="182">
-        <v>4.4044999999999996</v>
-      </c>
-      <c r="AL21" s="183">
-        <v>4.4836999999999998</v>
+      <c r="AC21" s="187">
+        <v>3.4003999999999999</v>
+      </c>
+      <c r="AD21" s="187">
+        <v>3.5687000000000002</v>
+      </c>
+      <c r="AE21" s="187">
+        <v>3.7397999999999998</v>
+      </c>
+      <c r="AF21" s="187">
+        <v>3.9136000000000002</v>
+      </c>
+      <c r="AG21" s="187">
+        <v>4.0896999999999997</v>
+      </c>
+      <c r="AH21" s="187">
+        <v>4.1687000000000003</v>
+      </c>
+      <c r="AI21" s="187">
+        <v>4.2477999999999998</v>
+      </c>
+      <c r="AJ21" s="187">
+        <v>4.3270999999999997</v>
+      </c>
+      <c r="AK21" s="187">
+        <v>4.4065000000000003</v>
+      </c>
+      <c r="AL21" s="188">
+        <v>4.4858000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="160" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="133" t="s">
@@ -4935,93 +4904,93 @@
       <c r="J22" s="139"/>
       <c r="K22" s="139"/>
       <c r="L22" s="140"/>
-      <c r="M22" s="181">
+      <c r="M22" s="186">
         <v>2.383</v>
       </c>
-      <c r="N22" s="182">
+      <c r="N22" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O22" s="182">
+      <c r="O22" s="187">
         <v>2.5461999999999994</v>
       </c>
-      <c r="P22" s="182">
+      <c r="P22" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q22" s="182">
+      <c r="Q22" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R22" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S22" s="182">
+      <c r="R22" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S22" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T22" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U22" s="182">
+      <c r="T22" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U22" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V22" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W22" s="182">
+      <c r="V22" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W22" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X22" s="182">
+      <c r="X22" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y22" s="182">
+      <c r="Y22" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z22" s="182">
+      <c r="Z22" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA22" s="182">
+      <c r="AA22" s="187">
         <v>3.5149000000000004</v>
       </c>
-      <c r="AB22" s="182">
+      <c r="AB22" s="187">
         <v>3.7034999999999996</v>
       </c>
-      <c r="AC22" s="182">
-        <v>3.8930999999999996</v>
-      </c>
-      <c r="AD22" s="182">
-        <v>4.0858999999999996</v>
-      </c>
-      <c r="AE22" s="182">
-        <v>4.2816999999999998</v>
-      </c>
-      <c r="AF22" s="182">
-        <v>4.4806999999999997</v>
-      </c>
-      <c r="AG22" s="182">
-        <v>4.6824000000000003</v>
-      </c>
-      <c r="AH22" s="182">
-        <v>4.7726000000000006</v>
-      </c>
-      <c r="AI22" s="182">
-        <v>4.8632</v>
-      </c>
-      <c r="AJ22" s="182">
-        <v>4.9539</v>
-      </c>
-      <c r="AK22" s="182">
-        <v>5.0445999999999991</v>
-      </c>
-      <c r="AL22" s="183">
-        <v>5.1353999999999997</v>
+      <c r="AC22" s="187">
+        <v>3.8932999999999995</v>
+      </c>
+      <c r="AD22" s="187">
+        <v>4.0862999999999996</v>
+      </c>
+      <c r="AE22" s="187">
+        <v>4.2822999999999993</v>
+      </c>
+      <c r="AF22" s="187">
+        <v>4.4815000000000005</v>
+      </c>
+      <c r="AG22" s="187">
+        <v>4.6833999999999998</v>
+      </c>
+      <c r="AH22" s="187">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="AI22" s="187">
+        <v>4.8646999999999991</v>
+      </c>
+      <c r="AJ22" s="187">
+        <v>4.9555999999999996</v>
+      </c>
+      <c r="AK22" s="187">
+        <v>5.0466000000000006</v>
+      </c>
+      <c r="AL22" s="188">
+        <v>5.1375000000000011</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="160" t="s">
         <v>88</v>
       </c>
       <c r="D23" s="133" t="s">
@@ -5043,93 +5012,93 @@
       <c r="J23" s="139"/>
       <c r="K23" s="139"/>
       <c r="L23" s="140"/>
-      <c r="M23" s="181">
+      <c r="M23" s="186">
         <v>2.383</v>
       </c>
-      <c r="N23" s="182">
+      <c r="N23" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O23" s="182">
+      <c r="O23" s="187">
         <v>2.5461999999999994</v>
       </c>
-      <c r="P23" s="182">
+      <c r="P23" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q23" s="182">
+      <c r="Q23" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R23" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S23" s="182">
+      <c r="R23" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S23" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T23" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U23" s="182">
+      <c r="T23" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U23" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V23" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W23" s="182">
+      <c r="V23" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W23" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X23" s="182">
+      <c r="X23" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y23" s="182">
+      <c r="Y23" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z23" s="182">
+      <c r="Z23" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA23" s="182">
+      <c r="AA23" s="187">
         <v>3.5149000000000004</v>
       </c>
-      <c r="AB23" s="182">
+      <c r="AB23" s="187">
         <v>3.7034999999999996</v>
       </c>
-      <c r="AC23" s="182">
-        <v>3.8930999999999996</v>
-      </c>
-      <c r="AD23" s="182">
-        <v>4.0858999999999996</v>
-      </c>
-      <c r="AE23" s="182">
-        <v>4.2816999999999998</v>
-      </c>
-      <c r="AF23" s="182">
-        <v>4.4806999999999997</v>
-      </c>
-      <c r="AG23" s="182">
-        <v>4.6824000000000003</v>
-      </c>
-      <c r="AH23" s="182">
-        <v>4.7726000000000006</v>
-      </c>
-      <c r="AI23" s="182">
-        <v>4.8632</v>
-      </c>
-      <c r="AJ23" s="182">
-        <v>4.9539</v>
-      </c>
-      <c r="AK23" s="182">
-        <v>5.0445999999999991</v>
-      </c>
-      <c r="AL23" s="183">
-        <v>5.1353999999999997</v>
+      <c r="AC23" s="187">
+        <v>3.8932999999999995</v>
+      </c>
+      <c r="AD23" s="187">
+        <v>4.0862999999999996</v>
+      </c>
+      <c r="AE23" s="187">
+        <v>4.2822999999999993</v>
+      </c>
+      <c r="AF23" s="187">
+        <v>4.4815000000000005</v>
+      </c>
+      <c r="AG23" s="187">
+        <v>4.6833999999999998</v>
+      </c>
+      <c r="AH23" s="187">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="AI23" s="187">
+        <v>4.8646999999999991</v>
+      </c>
+      <c r="AJ23" s="187">
+        <v>4.9555999999999996</v>
+      </c>
+      <c r="AK23" s="187">
+        <v>5.0466000000000006</v>
+      </c>
+      <c r="AL23" s="188">
+        <v>5.1375000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="184" t="s">
+      <c r="C24" s="160" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="133" t="s">
@@ -5151,93 +5120,93 @@
       <c r="J24" s="139"/>
       <c r="K24" s="139"/>
       <c r="L24" s="140"/>
-      <c r="M24" s="181">
+      <c r="M24" s="186">
         <v>2.383</v>
       </c>
-      <c r="N24" s="182">
+      <c r="N24" s="187">
         <v>2.4696000000000002</v>
       </c>
-      <c r="O24" s="182">
+      <c r="O24" s="187">
         <v>2.5461999999999994</v>
       </c>
-      <c r="P24" s="182">
+      <c r="P24" s="187">
         <v>2.8925999999999998</v>
       </c>
-      <c r="Q24" s="182">
+      <c r="Q24" s="187">
         <v>3.2660000000000005</v>
       </c>
-      <c r="R24" s="182">
-        <v>3.0785999999999998</v>
-      </c>
-      <c r="S24" s="182">
+      <c r="R24" s="187">
+        <v>3.0836999999999994</v>
+      </c>
+      <c r="S24" s="187">
         <v>2.9424999999999999</v>
       </c>
-      <c r="T24" s="182">
-        <v>2.9302000000000001</v>
-      </c>
-      <c r="U24" s="182">
+      <c r="T24" s="187">
+        <v>2.9344000000000006</v>
+      </c>
+      <c r="U24" s="187">
         <v>2.9272</v>
       </c>
-      <c r="V24" s="182">
-        <v>2.9377000000000004</v>
-      </c>
-      <c r="W24" s="182">
+      <c r="V24" s="187">
+        <v>2.9375999999999998</v>
+      </c>
+      <c r="W24" s="187">
         <v>2.9480000000000004</v>
       </c>
-      <c r="X24" s="182">
+      <c r="X24" s="187">
         <v>3.0234999999999999</v>
       </c>
-      <c r="Y24" s="182">
+      <c r="Y24" s="187">
         <v>3.1475999999999997</v>
       </c>
-      <c r="Z24" s="182">
+      <c r="Z24" s="187">
         <v>3.3294999999999999</v>
       </c>
-      <c r="AA24" s="182">
+      <c r="AA24" s="187">
         <v>3.5149000000000004</v>
       </c>
-      <c r="AB24" s="182">
+      <c r="AB24" s="187">
         <v>3.7034999999999996</v>
       </c>
-      <c r="AC24" s="182">
-        <v>3.8930999999999996</v>
-      </c>
-      <c r="AD24" s="182">
-        <v>4.0858999999999996</v>
-      </c>
-      <c r="AE24" s="182">
-        <v>4.2816999999999998</v>
-      </c>
-      <c r="AF24" s="182">
-        <v>4.4806999999999997</v>
-      </c>
-      <c r="AG24" s="182">
-        <v>4.6824000000000003</v>
-      </c>
-      <c r="AH24" s="182">
-        <v>4.7726000000000006</v>
-      </c>
-      <c r="AI24" s="182">
-        <v>4.8632</v>
-      </c>
-      <c r="AJ24" s="182">
-        <v>4.9539</v>
-      </c>
-      <c r="AK24" s="182">
-        <v>5.0445999999999991</v>
-      </c>
-      <c r="AL24" s="183">
-        <v>5.1353999999999997</v>
+      <c r="AC24" s="187">
+        <v>3.8932999999999995</v>
+      </c>
+      <c r="AD24" s="187">
+        <v>4.0862999999999996</v>
+      </c>
+      <c r="AE24" s="187">
+        <v>4.2822999999999993</v>
+      </c>
+      <c r="AF24" s="187">
+        <v>4.4815000000000005</v>
+      </c>
+      <c r="AG24" s="187">
+        <v>4.6833999999999998</v>
+      </c>
+      <c r="AH24" s="187">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="AI24" s="187">
+        <v>4.8646999999999991</v>
+      </c>
+      <c r="AJ24" s="187">
+        <v>4.9555999999999996</v>
+      </c>
+      <c r="AK24" s="187">
+        <v>5.0466000000000006</v>
+      </c>
+      <c r="AL24" s="188">
+        <v>5.1375000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="160" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="133" t="s">
@@ -5259,93 +5228,93 @@
       <c r="J25" s="139"/>
       <c r="K25" s="139"/>
       <c r="L25" s="140"/>
-      <c r="M25" s="181">
+      <c r="M25" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N25" s="182">
+      <c r="N25" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O25" s="182">
+      <c r="O25" s="187">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P25" s="182">
+      <c r="P25" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q25" s="182">
+      <c r="Q25" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R25" s="182">
+      <c r="R25" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S25" s="182">
+      <c r="S25" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T25" s="182">
+      <c r="T25" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U25" s="182">
+      <c r="U25" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V25" s="182">
+      <c r="V25" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W25" s="182">
+      <c r="W25" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X25" s="182">
+      <c r="X25" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y25" s="182">
+      <c r="Y25" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z25" s="182">
+      <c r="Z25" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA25" s="182">
+      <c r="AA25" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB25" s="182">
+      <c r="AB25" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC25" s="182">
+      <c r="AC25" s="187">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AD25" s="182">
+      <c r="AD25" s="187">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AE25" s="182">
+      <c r="AE25" s="187">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="AF25" s="182">
+      <c r="AF25" s="187">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG25" s="182">
+      <c r="AG25" s="187">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="AH25" s="182">
+      <c r="AH25" s="187">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AI25" s="182">
+      <c r="AI25" s="187">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="AJ25" s="182">
+      <c r="AJ25" s="187">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="AK25" s="182">
+      <c r="AK25" s="187">
         <v>7.46E-2</v>
       </c>
-      <c r="AL25" s="183">
+      <c r="AL25" s="188">
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="184" t="s">
+      <c r="C26" s="160" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="133" t="s">
@@ -5367,93 +5336,93 @@
       <c r="J26" s="139"/>
       <c r="K26" s="139"/>
       <c r="L26" s="140"/>
-      <c r="M26" s="181">
+      <c r="M26" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N26" s="182">
+      <c r="N26" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O26" s="182">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="P26" s="182">
+      <c r="O26" s="187">
+        <v>7.2999999999999992E-3</v>
+      </c>
+      <c r="P26" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q26" s="182">
+      <c r="Q26" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R26" s="182">
+      <c r="R26" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S26" s="182">
+      <c r="S26" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T26" s="182">
+      <c r="T26" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U26" s="182">
+      <c r="U26" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V26" s="182">
+      <c r="V26" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W26" s="182">
+      <c r="W26" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X26" s="182">
+      <c r="X26" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y26" s="182">
+      <c r="Y26" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z26" s="182">
+      <c r="Z26" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA26" s="182">
+      <c r="AA26" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB26" s="182">
+      <c r="AB26" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC26" s="182">
+      <c r="AC26" s="187">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AD26" s="182">
+      <c r="AD26" s="187">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AE26" s="182">
+      <c r="AE26" s="187">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="AF26" s="182">
+      <c r="AF26" s="187">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG26" s="182">
+      <c r="AG26" s="187">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="AH26" s="182">
+      <c r="AH26" s="187">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AI26" s="182">
+      <c r="AI26" s="187">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="AJ26" s="182">
+      <c r="AJ26" s="187">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="AK26" s="182">
+      <c r="AK26" s="187">
         <v>7.46E-2</v>
       </c>
-      <c r="AL26" s="183">
+      <c r="AL26" s="188">
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="184" t="s">
+      <c r="C27" s="160" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="133" t="s">
@@ -5475,93 +5444,93 @@
       <c r="J27" s="139"/>
       <c r="K27" s="139"/>
       <c r="L27" s="140"/>
-      <c r="M27" s="181">
+      <c r="M27" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N27" s="182">
+      <c r="N27" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O27" s="182">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="P27" s="182">
+      <c r="O27" s="187">
+        <v>7.2999999999999992E-3</v>
+      </c>
+      <c r="P27" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q27" s="182">
+      <c r="Q27" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R27" s="182">
+      <c r="R27" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S27" s="182">
+      <c r="S27" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T27" s="182">
+      <c r="T27" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U27" s="182">
+      <c r="U27" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V27" s="182">
+      <c r="V27" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W27" s="182">
+      <c r="W27" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X27" s="182">
+      <c r="X27" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y27" s="182">
+      <c r="Y27" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z27" s="182">
+      <c r="Z27" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA27" s="182">
+      <c r="AA27" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB27" s="182">
+      <c r="AB27" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC27" s="182">
+      <c r="AC27" s="187">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AD27" s="182">
+      <c r="AD27" s="187">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AE27" s="182">
+      <c r="AE27" s="187">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="AF27" s="182">
+      <c r="AF27" s="187">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG27" s="182">
+      <c r="AG27" s="187">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="AH27" s="182">
+      <c r="AH27" s="187">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AI27" s="182">
+      <c r="AI27" s="187">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="AJ27" s="182">
+      <c r="AJ27" s="187">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="AK27" s="182">
+      <c r="AK27" s="187">
         <v>7.46E-2</v>
       </c>
-      <c r="AL27" s="183">
+      <c r="AL27" s="188">
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="160" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="133" t="s">
@@ -5583,93 +5552,93 @@
       <c r="J28" s="139"/>
       <c r="K28" s="139"/>
       <c r="L28" s="140"/>
-      <c r="M28" s="181">
+      <c r="M28" s="186">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N28" s="182">
+      <c r="N28" s="187">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O28" s="182">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="P28" s="182">
+      <c r="O28" s="187">
+        <v>7.2999999999999992E-3</v>
+      </c>
+      <c r="P28" s="187">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q28" s="182">
+      <c r="Q28" s="187">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="R28" s="182">
+      <c r="R28" s="187">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="S28" s="182">
+      <c r="S28" s="187">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="T28" s="182">
+      <c r="T28" s="187">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="U28" s="182">
+      <c r="U28" s="187">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="V28" s="182">
+      <c r="V28" s="187">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="W28" s="182">
+      <c r="W28" s="187">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="X28" s="182">
+      <c r="X28" s="187">
         <v>3.85E-2</v>
       </c>
-      <c r="Y28" s="182">
+      <c r="Y28" s="187">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Z28" s="182">
+      <c r="Z28" s="187">
         <v>3.56E-2</v>
       </c>
-      <c r="AA28" s="182">
+      <c r="AA28" s="187">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="AB28" s="182">
+      <c r="AB28" s="187">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AC28" s="182">
+      <c r="AC28" s="187">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AD28" s="182">
+      <c r="AD28" s="187">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AE28" s="182">
+      <c r="AE28" s="187">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="AF28" s="182">
+      <c r="AF28" s="187">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG28" s="182">
+      <c r="AG28" s="187">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="AH28" s="182">
+      <c r="AH28" s="187">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AI28" s="182">
+      <c r="AI28" s="187">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="AJ28" s="182">
+      <c r="AJ28" s="187">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="AK28" s="182">
+      <c r="AK28" s="187">
         <v>7.46E-2</v>
       </c>
-      <c r="AL28" s="183">
+      <c r="AL28" s="188">
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="189" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="133" t="s">
@@ -5691,93 +5660,93 @@
       <c r="J29" s="139"/>
       <c r="K29" s="139"/>
       <c r="L29" s="140"/>
-      <c r="M29" s="174">
+      <c r="M29" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N29" s="175">
+      <c r="N29" s="187">
         <v>1.7402000000000002</v>
       </c>
-      <c r="O29" s="175">
+      <c r="O29" s="187">
         <v>1.7947000000000006</v>
       </c>
-      <c r="P29" s="175">
+      <c r="P29" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q29" s="175">
+      <c r="Q29" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R29" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S29" s="175">
+      <c r="R29" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S29" s="187">
         <v>2.0872000000000006</v>
       </c>
-      <c r="T29" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U29" s="175">
+      <c r="T29" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U29" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V29" s="175">
-        <v>2.0894999999999997</v>
-      </c>
-      <c r="W29" s="175">
+      <c r="V29" s="187">
+        <v>2.0895999999999999</v>
+      </c>
+      <c r="W29" s="187">
         <v>2.097799999999999</v>
       </c>
-      <c r="X29" s="175">
+      <c r="X29" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y29" s="175">
+      <c r="Y29" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z29" s="175">
+      <c r="Z29" s="187">
         <v>2.3656000000000001</v>
       </c>
-      <c r="AA29" s="175">
+      <c r="AA29" s="187">
         <v>2.4972999999999992</v>
       </c>
-      <c r="AB29" s="175">
+      <c r="AB29" s="187">
         <v>2.6311000000000004</v>
       </c>
-      <c r="AC29" s="175">
-        <v>2.7666000000000008</v>
-      </c>
-      <c r="AD29" s="175">
-        <v>2.9040999999999997</v>
-      </c>
-      <c r="AE29" s="175">
-        <v>3.0436000000000005</v>
-      </c>
-      <c r="AF29" s="175">
-        <v>3.1850000000000005</v>
-      </c>
-      <c r="AG29" s="175">
-        <v>3.3278999999999987</v>
-      </c>
-      <c r="AH29" s="175">
-        <v>3.3919000000000006</v>
-      </c>
-      <c r="AI29" s="175">
-        <v>3.4558000000000013</v>
-      </c>
-      <c r="AJ29" s="175">
-        <v>3.5194000000000001</v>
-      </c>
-      <c r="AK29" s="175">
-        <v>3.5832000000000011</v>
-      </c>
-      <c r="AL29" s="176">
-        <v>3.6467000000000001</v>
+      <c r="AC29" s="187">
+        <v>2.7664000000000009</v>
+      </c>
+      <c r="AD29" s="187">
+        <v>2.9037999999999999</v>
+      </c>
+      <c r="AE29" s="187">
+        <v>3.0430999999999999</v>
+      </c>
+      <c r="AF29" s="187">
+        <v>3.1842999999999999</v>
+      </c>
+      <c r="AG29" s="187">
+        <v>3.3269999999999991</v>
+      </c>
+      <c r="AH29" s="187">
+        <v>3.3907999999999996</v>
+      </c>
+      <c r="AI29" s="187">
+        <v>3.4545000000000008</v>
+      </c>
+      <c r="AJ29" s="187">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="AK29" s="187">
+        <v>3.5814999999999997</v>
+      </c>
+      <c r="AL29" s="188">
+        <v>3.6449000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="160" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="133" t="s">
@@ -5799,93 +5768,93 @@
       <c r="J30" s="139"/>
       <c r="K30" s="139"/>
       <c r="L30" s="140"/>
-      <c r="M30" s="174">
+      <c r="M30" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N30" s="175">
+      <c r="N30" s="187">
         <v>1.7402000000000002</v>
       </c>
-      <c r="O30" s="175">
+      <c r="O30" s="187">
         <v>1.7947000000000006</v>
       </c>
-      <c r="P30" s="175">
+      <c r="P30" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q30" s="175">
+      <c r="Q30" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R30" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S30" s="175">
+      <c r="R30" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S30" s="187">
         <v>2.0872000000000006</v>
       </c>
-      <c r="T30" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U30" s="175">
+      <c r="T30" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U30" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V30" s="175">
-        <v>2.0894999999999997</v>
-      </c>
-      <c r="W30" s="175">
+      <c r="V30" s="187">
+        <v>2.0895999999999999</v>
+      </c>
+      <c r="W30" s="187">
         <v>2.097799999999999</v>
       </c>
-      <c r="X30" s="175">
+      <c r="X30" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y30" s="175">
+      <c r="Y30" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z30" s="175">
+      <c r="Z30" s="187">
         <v>2.3656000000000001</v>
       </c>
-      <c r="AA30" s="175">
+      <c r="AA30" s="187">
         <v>2.4972999999999992</v>
       </c>
-      <c r="AB30" s="175">
+      <c r="AB30" s="187">
         <v>2.6311000000000004</v>
       </c>
-      <c r="AC30" s="175">
-        <v>2.7666000000000008</v>
-      </c>
-      <c r="AD30" s="175">
-        <v>2.9040999999999997</v>
-      </c>
-      <c r="AE30" s="175">
-        <v>3.0436000000000005</v>
-      </c>
-      <c r="AF30" s="175">
-        <v>3.1850000000000005</v>
-      </c>
-      <c r="AG30" s="175">
-        <v>3.3278999999999987</v>
-      </c>
-      <c r="AH30" s="175">
-        <v>3.3919000000000006</v>
-      </c>
-      <c r="AI30" s="175">
-        <v>3.4558000000000013</v>
-      </c>
-      <c r="AJ30" s="175">
-        <v>3.5194000000000001</v>
-      </c>
-      <c r="AK30" s="175">
-        <v>3.5832000000000011</v>
-      </c>
-      <c r="AL30" s="176">
-        <v>3.6467000000000001</v>
+      <c r="AC30" s="187">
+        <v>2.7664000000000009</v>
+      </c>
+      <c r="AD30" s="187">
+        <v>2.9037999999999999</v>
+      </c>
+      <c r="AE30" s="187">
+        <v>3.0430999999999999</v>
+      </c>
+      <c r="AF30" s="187">
+        <v>3.1842999999999999</v>
+      </c>
+      <c r="AG30" s="187">
+        <v>3.3269999999999991</v>
+      </c>
+      <c r="AH30" s="187">
+        <v>3.3907999999999996</v>
+      </c>
+      <c r="AI30" s="187">
+        <v>3.4545000000000008</v>
+      </c>
+      <c r="AJ30" s="187">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="AK30" s="187">
+        <v>3.5814999999999997</v>
+      </c>
+      <c r="AL30" s="188">
+        <v>3.6449000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="160" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="133" t="s">
@@ -5907,93 +5876,93 @@
       <c r="J31" s="139"/>
       <c r="K31" s="139"/>
       <c r="L31" s="140"/>
-      <c r="M31" s="174">
+      <c r="M31" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N31" s="175">
+      <c r="N31" s="187">
         <v>1.7402000000000002</v>
       </c>
-      <c r="O31" s="175">
+      <c r="O31" s="187">
         <v>1.7947000000000006</v>
       </c>
-      <c r="P31" s="175">
+      <c r="P31" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q31" s="175">
+      <c r="Q31" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R31" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S31" s="175">
+      <c r="R31" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S31" s="187">
         <v>2.0872000000000006</v>
       </c>
-      <c r="T31" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U31" s="175">
+      <c r="T31" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U31" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V31" s="175">
-        <v>2.0894999999999997</v>
-      </c>
-      <c r="W31" s="175">
+      <c r="V31" s="187">
+        <v>2.0895999999999999</v>
+      </c>
+      <c r="W31" s="187">
         <v>2.097799999999999</v>
       </c>
-      <c r="X31" s="175">
+      <c r="X31" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y31" s="175">
+      <c r="Y31" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z31" s="175">
+      <c r="Z31" s="187">
         <v>2.3656000000000001</v>
       </c>
-      <c r="AA31" s="175">
+      <c r="AA31" s="187">
         <v>2.4972999999999992</v>
       </c>
-      <c r="AB31" s="175">
+      <c r="AB31" s="187">
         <v>2.6311000000000004</v>
       </c>
-      <c r="AC31" s="175">
-        <v>2.7666000000000008</v>
-      </c>
-      <c r="AD31" s="175">
-        <v>2.9040999999999997</v>
-      </c>
-      <c r="AE31" s="175">
-        <v>3.0436000000000005</v>
-      </c>
-      <c r="AF31" s="175">
-        <v>3.1850000000000005</v>
-      </c>
-      <c r="AG31" s="175">
-        <v>3.3278999999999987</v>
-      </c>
-      <c r="AH31" s="175">
-        <v>3.3919000000000006</v>
-      </c>
-      <c r="AI31" s="175">
-        <v>3.4558000000000013</v>
-      </c>
-      <c r="AJ31" s="175">
-        <v>3.5194000000000001</v>
-      </c>
-      <c r="AK31" s="175">
-        <v>3.5832000000000011</v>
-      </c>
-      <c r="AL31" s="176">
-        <v>3.6467000000000001</v>
+      <c r="AC31" s="187">
+        <v>2.7664000000000009</v>
+      </c>
+      <c r="AD31" s="187">
+        <v>2.9037999999999999</v>
+      </c>
+      <c r="AE31" s="187">
+        <v>3.0430999999999999</v>
+      </c>
+      <c r="AF31" s="187">
+        <v>3.1842999999999999</v>
+      </c>
+      <c r="AG31" s="187">
+        <v>3.3269999999999991</v>
+      </c>
+      <c r="AH31" s="187">
+        <v>3.3907999999999996</v>
+      </c>
+      <c r="AI31" s="187">
+        <v>3.4545000000000008</v>
+      </c>
+      <c r="AJ31" s="187">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="AK31" s="187">
+        <v>3.5814999999999997</v>
+      </c>
+      <c r="AL31" s="188">
+        <v>3.6449000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="160" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="133" t="s">
@@ -6015,93 +5984,93 @@
       <c r="J32" s="139"/>
       <c r="K32" s="139"/>
       <c r="L32" s="140"/>
-      <c r="M32" s="174">
+      <c r="M32" s="186">
         <v>1.6786999999999996</v>
       </c>
-      <c r="N32" s="175">
+      <c r="N32" s="187">
         <v>1.7402000000000002</v>
       </c>
-      <c r="O32" s="175">
+      <c r="O32" s="187">
         <v>1.7947000000000006</v>
       </c>
-      <c r="P32" s="175">
+      <c r="P32" s="187">
         <v>2.0486</v>
       </c>
-      <c r="Q32" s="175">
+      <c r="Q32" s="187">
         <v>2.3216000000000006</v>
       </c>
-      <c r="R32" s="175">
-        <v>2.1864000000000003</v>
-      </c>
-      <c r="S32" s="175">
+      <c r="R32" s="187">
+        <v>2.1813000000000007</v>
+      </c>
+      <c r="S32" s="187">
         <v>2.0872000000000006</v>
       </c>
-      <c r="T32" s="175">
-        <v>2.0809000000000006</v>
-      </c>
-      <c r="U32" s="175">
+      <c r="T32" s="187">
+        <v>2.0767000000000007</v>
+      </c>
+      <c r="U32" s="187">
         <v>2.0810999999999997</v>
       </c>
-      <c r="V32" s="175">
-        <v>2.0894999999999997</v>
-      </c>
-      <c r="W32" s="175">
+      <c r="V32" s="187">
+        <v>2.0895999999999999</v>
+      </c>
+      <c r="W32" s="187">
         <v>2.097799999999999</v>
       </c>
-      <c r="X32" s="175">
+      <c r="X32" s="187">
         <v>2.1521000000000003</v>
       </c>
-      <c r="Y32" s="175">
+      <c r="Y32" s="187">
         <v>2.2359000000000004</v>
       </c>
-      <c r="Z32" s="175">
+      <c r="Z32" s="187">
         <v>2.3656000000000001</v>
       </c>
-      <c r="AA32" s="175">
+      <c r="AA32" s="187">
         <v>2.4972999999999992</v>
       </c>
-      <c r="AB32" s="175">
+      <c r="AB32" s="187">
         <v>2.6311000000000004</v>
       </c>
-      <c r="AC32" s="175">
-        <v>2.7666000000000008</v>
-      </c>
-      <c r="AD32" s="175">
-        <v>2.9040999999999997</v>
-      </c>
-      <c r="AE32" s="175">
-        <v>3.0436000000000005</v>
-      </c>
-      <c r="AF32" s="175">
-        <v>3.1850000000000005</v>
-      </c>
-      <c r="AG32" s="175">
-        <v>3.3278999999999987</v>
-      </c>
-      <c r="AH32" s="175">
-        <v>3.3919000000000006</v>
-      </c>
-      <c r="AI32" s="175">
-        <v>3.4558000000000013</v>
-      </c>
-      <c r="AJ32" s="175">
-        <v>3.5194000000000001</v>
-      </c>
-      <c r="AK32" s="175">
-        <v>3.5832000000000011</v>
-      </c>
-      <c r="AL32" s="176">
-        <v>3.6467000000000001</v>
+      <c r="AC32" s="187">
+        <v>2.7664000000000009</v>
+      </c>
+      <c r="AD32" s="187">
+        <v>2.9037999999999999</v>
+      </c>
+      <c r="AE32" s="187">
+        <v>3.0430999999999999</v>
+      </c>
+      <c r="AF32" s="187">
+        <v>3.1842999999999999</v>
+      </c>
+      <c r="AG32" s="187">
+        <v>3.3269999999999991</v>
+      </c>
+      <c r="AH32" s="187">
+        <v>3.3907999999999996</v>
+      </c>
+      <c r="AI32" s="187">
+        <v>3.4545000000000008</v>
+      </c>
+      <c r="AJ32" s="187">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="AK32" s="187">
+        <v>3.5814999999999997</v>
+      </c>
+      <c r="AL32" s="188">
+        <v>3.6449000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="163" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="133" t="s">
@@ -6123,93 +6092,93 @@
       <c r="J33" s="155"/>
       <c r="K33" s="155"/>
       <c r="L33" s="156"/>
-      <c r="M33" s="160">
+      <c r="M33" s="176">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N33" s="161">
+      <c r="N33" s="177">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O33" s="161">
+      <c r="O33" s="177">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P33" s="161">
+      <c r="P33" s="177">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q33" s="161">
+      <c r="Q33" s="177">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R33" s="161">
+      <c r="R33" s="177">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S33" s="161">
+      <c r="S33" s="177">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T33" s="161">
+      <c r="T33" s="177">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U33" s="161">
+      <c r="U33" s="177">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V33" s="161">
+      <c r="V33" s="177">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W33" s="161">
+      <c r="W33" s="177">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X33" s="161">
+      <c r="X33" s="177">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y33" s="162">
+      <c r="Y33" s="178">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z33" s="162">
+      <c r="Z33" s="178">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA33" s="162">
+      <c r="AA33" s="178">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB33" s="162">
+      <c r="AB33" s="178">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC33" s="162">
+      <c r="AC33" s="178">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD33" s="162">
+      <c r="AD33" s="178">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE33" s="162">
+      <c r="AE33" s="178">
         <v>1.2684</v>
       </c>
-      <c r="AF33" s="162">
+      <c r="AF33" s="178">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG33" s="162">
+      <c r="AG33" s="178">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH33" s="162">
+      <c r="AH33" s="178">
         <v>1.4899</v>
       </c>
-      <c r="AI33" s="162">
+      <c r="AI33" s="178">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ33" s="162">
+      <c r="AJ33" s="178">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK33" s="162">
+      <c r="AK33" s="178">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL33" s="163">
+      <c r="AL33" s="179">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="189" t="s">
+      <c r="A34" s="166" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="193" t="s">
+      <c r="C34" s="170" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="143" t="s">
@@ -6231,93 +6200,93 @@
       <c r="J34" s="147"/>
       <c r="K34" s="147"/>
       <c r="L34" s="148"/>
-      <c r="M34" s="164">
+      <c r="M34" s="180">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N34" s="165">
+      <c r="N34" s="181">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O34" s="165">
+      <c r="O34" s="181">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P34" s="165">
+      <c r="P34" s="181">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q34" s="165">
+      <c r="Q34" s="181">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R34" s="165">
+      <c r="R34" s="181">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S34" s="165">
+      <c r="S34" s="181">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T34" s="165">
+      <c r="T34" s="181">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U34" s="165">
+      <c r="U34" s="181">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V34" s="165">
+      <c r="V34" s="181">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W34" s="165">
+      <c r="W34" s="181">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X34" s="165">
+      <c r="X34" s="181">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y34" s="165">
+      <c r="Y34" s="181">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z34" s="165">
+      <c r="Z34" s="181">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA34" s="165">
+      <c r="AA34" s="181">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB34" s="165">
+      <c r="AB34" s="181">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC34" s="165">
+      <c r="AC34" s="181">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD34" s="165">
+      <c r="AD34" s="181">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE34" s="165">
+      <c r="AE34" s="181">
         <v>1.2684</v>
       </c>
-      <c r="AF34" s="165">
+      <c r="AF34" s="181">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG34" s="165">
+      <c r="AG34" s="181">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH34" s="165">
+      <c r="AH34" s="181">
         <v>1.4899</v>
       </c>
-      <c r="AI34" s="165">
+      <c r="AI34" s="181">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ34" s="165">
+      <c r="AJ34" s="181">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK34" s="165">
+      <c r="AK34" s="181">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL34" s="166">
+      <c r="AL34" s="182">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="167" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="171" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="151" t="s">
@@ -6339,93 +6308,93 @@
       <c r="J35" s="158"/>
       <c r="K35" s="158"/>
       <c r="L35" s="159"/>
-      <c r="M35" s="167">
+      <c r="M35" s="183">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N35" s="168">
+      <c r="N35" s="184">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O35" s="168">
+      <c r="O35" s="184">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P35" s="168">
+      <c r="P35" s="184">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q35" s="168">
+      <c r="Q35" s="184">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R35" s="168">
+      <c r="R35" s="184">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S35" s="168">
+      <c r="S35" s="184">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T35" s="168">
+      <c r="T35" s="184">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U35" s="168">
+      <c r="U35" s="184">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V35" s="168">
+      <c r="V35" s="184">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W35" s="168">
+      <c r="W35" s="184">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X35" s="168">
+      <c r="X35" s="184">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y35" s="168">
+      <c r="Y35" s="184">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z35" s="168">
+      <c r="Z35" s="184">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA35" s="168">
+      <c r="AA35" s="184">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB35" s="168">
+      <c r="AB35" s="184">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC35" s="168">
+      <c r="AC35" s="184">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD35" s="168">
+      <c r="AD35" s="184">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE35" s="168">
+      <c r="AE35" s="184">
         <v>1.2684</v>
       </c>
-      <c r="AF35" s="168">
+      <c r="AF35" s="184">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG35" s="168">
+      <c r="AG35" s="184">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH35" s="168">
+      <c r="AH35" s="184">
         <v>1.4899</v>
       </c>
-      <c r="AI35" s="168">
+      <c r="AI35" s="184">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ35" s="168">
+      <c r="AJ35" s="184">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK35" s="168">
+      <c r="AK35" s="184">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL35" s="169">
+      <c r="AL35" s="185">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="163" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="133" t="s">
@@ -6447,93 +6416,93 @@
       <c r="J36" s="155"/>
       <c r="K36" s="155"/>
       <c r="L36" s="156"/>
-      <c r="M36" s="160">
+      <c r="M36" s="176">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N36" s="161">
+      <c r="N36" s="177">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O36" s="161">
+      <c r="O36" s="177">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P36" s="161">
+      <c r="P36" s="177">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q36" s="161">
+      <c r="Q36" s="177">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R36" s="161">
+      <c r="R36" s="177">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S36" s="161">
+      <c r="S36" s="177">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T36" s="161">
+      <c r="T36" s="177">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U36" s="161">
+      <c r="U36" s="177">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V36" s="161">
+      <c r="V36" s="177">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W36" s="161">
+      <c r="W36" s="177">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X36" s="161">
+      <c r="X36" s="177">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y36" s="162">
+      <c r="Y36" s="178">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z36" s="162">
+      <c r="Z36" s="178">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA36" s="162">
+      <c r="AA36" s="178">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB36" s="162">
+      <c r="AB36" s="178">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC36" s="162">
+      <c r="AC36" s="178">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD36" s="162">
+      <c r="AD36" s="178">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE36" s="162">
+      <c r="AE36" s="178">
         <v>1.2684</v>
       </c>
-      <c r="AF36" s="162">
+      <c r="AF36" s="178">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG36" s="162">
+      <c r="AG36" s="178">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH36" s="162">
+      <c r="AH36" s="178">
         <v>1.4899</v>
       </c>
-      <c r="AI36" s="162">
+      <c r="AI36" s="178">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ36" s="162">
+      <c r="AJ36" s="178">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK36" s="162">
+      <c r="AK36" s="178">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL36" s="163">
+      <c r="AL36" s="179">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="191" t="s">
+      <c r="A37" s="168" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="170" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="143" t="s">
@@ -6555,93 +6524,93 @@
       <c r="J37" s="147"/>
       <c r="K37" s="147"/>
       <c r="L37" s="148"/>
-      <c r="M37" s="164">
+      <c r="M37" s="180">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N37" s="165">
+      <c r="N37" s="181">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O37" s="165">
+      <c r="O37" s="181">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P37" s="165">
+      <c r="P37" s="181">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q37" s="165">
+      <c r="Q37" s="181">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R37" s="165">
+      <c r="R37" s="181">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S37" s="165">
+      <c r="S37" s="181">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T37" s="165">
+      <c r="T37" s="181">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U37" s="165">
+      <c r="U37" s="181">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V37" s="165">
+      <c r="V37" s="181">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W37" s="165">
+      <c r="W37" s="181">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X37" s="165">
+      <c r="X37" s="181">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y37" s="165">
+      <c r="Y37" s="181">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z37" s="165">
+      <c r="Z37" s="181">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA37" s="165">
+      <c r="AA37" s="181">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB37" s="165">
+      <c r="AB37" s="181">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC37" s="165">
+      <c r="AC37" s="181">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD37" s="165">
+      <c r="AD37" s="181">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE37" s="165">
+      <c r="AE37" s="181">
         <v>1.2684</v>
       </c>
-      <c r="AF37" s="165">
+      <c r="AF37" s="181">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG37" s="165">
+      <c r="AG37" s="181">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH37" s="165">
+      <c r="AH37" s="181">
         <v>1.4899</v>
       </c>
-      <c r="AI37" s="165">
+      <c r="AI37" s="181">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ37" s="165">
+      <c r="AJ37" s="181">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK37" s="165">
+      <c r="AK37" s="181">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL37" s="166">
+      <c r="AL37" s="182">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="169" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="171" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="151" t="s">
@@ -6663,93 +6632,93 @@
       <c r="J38" s="158"/>
       <c r="K38" s="158"/>
       <c r="L38" s="159"/>
-      <c r="M38" s="167">
+      <c r="M38" s="183">
         <v>0.21940000000000001</v>
       </c>
-      <c r="N38" s="168">
+      <c r="N38" s="184">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O38" s="168">
+      <c r="O38" s="184">
         <v>0.63180000000000003</v>
       </c>
-      <c r="P38" s="168">
+      <c r="P38" s="184">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q38" s="168">
+      <c r="Q38" s="184">
         <v>0.26429999999999998</v>
       </c>
-      <c r="R38" s="168">
+      <c r="R38" s="184">
         <v>0.54620000000000002</v>
       </c>
-      <c r="S38" s="168">
+      <c r="S38" s="184">
         <v>0.82809999999999995</v>
       </c>
-      <c r="T38" s="168">
+      <c r="T38" s="184">
         <v>0.86429999999999996</v>
       </c>
-      <c r="U38" s="168">
+      <c r="U38" s="184">
         <v>0.90059999999999996</v>
       </c>
-      <c r="V38" s="168">
+      <c r="V38" s="184">
         <v>0.86040000000000005</v>
       </c>
-      <c r="W38" s="168">
+      <c r="W38" s="184">
         <v>0.82030000000000003</v>
       </c>
-      <c r="X38" s="168">
+      <c r="X38" s="184">
         <v>0.70069999999999999</v>
       </c>
-      <c r="Y38" s="168">
+      <c r="Y38" s="184">
         <v>0.85040000000000004</v>
       </c>
-      <c r="Z38" s="168">
+      <c r="Z38" s="184">
         <v>0.91710000000000003</v>
       </c>
-      <c r="AA38" s="168">
+      <c r="AA38" s="184">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AB38" s="168">
+      <c r="AB38" s="184">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AC38" s="168">
+      <c r="AC38" s="184">
         <v>1.0189999999999999</v>
       </c>
-      <c r="AD38" s="168">
+      <c r="AD38" s="184">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AE38" s="168">
+      <c r="AE38" s="184">
         <v>1.2684</v>
       </c>
-      <c r="AF38" s="168">
+      <c r="AF38" s="184">
         <v>1.3414999999999999</v>
       </c>
-      <c r="AG38" s="168">
+      <c r="AG38" s="184">
         <v>1.4148000000000001</v>
       </c>
-      <c r="AH38" s="168">
+      <c r="AH38" s="184">
         <v>1.4899</v>
       </c>
-      <c r="AI38" s="168">
+      <c r="AI38" s="184">
         <v>1.5669999999999999</v>
       </c>
-      <c r="AJ38" s="168">
+      <c r="AJ38" s="184">
         <v>1.6439999999999999</v>
       </c>
-      <c r="AK38" s="168">
+      <c r="AK38" s="184">
         <v>1.7229000000000001</v>
       </c>
-      <c r="AL38" s="169">
+      <c r="AL38" s="185">
         <v>1.8019000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="178" t="s">
+      <c r="C39" s="163" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="133" t="s">
@@ -6771,93 +6740,93 @@
       <c r="J39" s="155"/>
       <c r="K39" s="155"/>
       <c r="L39" s="156"/>
-      <c r="M39" s="160">
+      <c r="M39" s="176">
         <v>0.3417</v>
       </c>
-      <c r="N39" s="161">
+      <c r="N39" s="177">
         <v>0.3468</v>
       </c>
-      <c r="O39" s="161">
+      <c r="O39" s="177">
         <v>0.3533</v>
       </c>
-      <c r="P39" s="161">
+      <c r="P39" s="177">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q39" s="161">
+      <c r="Q39" s="177">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R39" s="161">
+      <c r="R39" s="177">
         <v>0.3705</v>
       </c>
-      <c r="S39" s="161">
+      <c r="S39" s="177">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T39" s="161">
+      <c r="T39" s="177">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U39" s="161">
+      <c r="U39" s="177">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V39" s="161">
+      <c r="V39" s="177">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W39" s="161">
+      <c r="W39" s="177">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X39" s="161">
+      <c r="X39" s="177">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y39" s="162">
+      <c r="Y39" s="178">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z39" s="162">
+      <c r="Z39" s="178">
         <v>0.4178</v>
       </c>
-      <c r="AA39" s="162">
+      <c r="AA39" s="178">
         <v>0.4491</v>
       </c>
-      <c r="AB39" s="162">
+      <c r="AB39" s="178">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC39" s="162">
+      <c r="AC39" s="178">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD39" s="162">
+      <c r="AD39" s="178">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE39" s="162">
+      <c r="AE39" s="178">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF39" s="162">
+      <c r="AF39" s="178">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG39" s="162">
+      <c r="AG39" s="178">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH39" s="162">
+      <c r="AH39" s="178">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI39" s="162">
+      <c r="AI39" s="178">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ39" s="162">
+      <c r="AJ39" s="178">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK39" s="162">
+      <c r="AK39" s="178">
         <v>0.73729999999999996</v>
       </c>
-      <c r="AL39" s="163">
+      <c r="AL39" s="179">
         <v>0.7681</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="189" t="s">
+      <c r="A40" s="166" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="193" t="s">
+      <c r="C40" s="170" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="143" t="s">
@@ -6879,93 +6848,93 @@
       <c r="J40" s="147"/>
       <c r="K40" s="147"/>
       <c r="L40" s="148"/>
-      <c r="M40" s="164">
+      <c r="M40" s="180">
         <v>0.3417</v>
       </c>
-      <c r="N40" s="165">
+      <c r="N40" s="181">
         <v>0.3468</v>
       </c>
-      <c r="O40" s="165">
+      <c r="O40" s="181">
         <v>0.3533</v>
       </c>
-      <c r="P40" s="165">
+      <c r="P40" s="181">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q40" s="165">
+      <c r="Q40" s="181">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R40" s="165">
+      <c r="R40" s="181">
         <v>0.3705</v>
       </c>
-      <c r="S40" s="165">
+      <c r="S40" s="181">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T40" s="165">
+      <c r="T40" s="181">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U40" s="165">
+      <c r="U40" s="181">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V40" s="165">
+      <c r="V40" s="181">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W40" s="165">
+      <c r="W40" s="181">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X40" s="165">
+      <c r="X40" s="181">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y40" s="165">
+      <c r="Y40" s="181">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z40" s="165">
+      <c r="Z40" s="181">
         <v>0.4178</v>
       </c>
-      <c r="AA40" s="165">
+      <c r="AA40" s="181">
         <v>0.4491</v>
       </c>
-      <c r="AB40" s="165">
+      <c r="AB40" s="181">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC40" s="165">
+      <c r="AC40" s="181">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD40" s="165">
+      <c r="AD40" s="181">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE40" s="165">
+      <c r="AE40" s="181">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF40" s="165">
+      <c r="AF40" s="181">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG40" s="165">
+      <c r="AG40" s="181">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH40" s="165">
+      <c r="AH40" s="181">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI40" s="165">
+      <c r="AI40" s="181">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ40" s="165">
+      <c r="AJ40" s="181">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK40" s="165">
+      <c r="AK40" s="181">
         <v>0.73729999999999996</v>
       </c>
-      <c r="AL40" s="166">
+      <c r="AL40" s="182">
         <v>0.7681</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="190" t="s">
+      <c r="A41" s="167" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="171" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="151" t="s">
@@ -6987,93 +6956,93 @@
       <c r="J41" s="158"/>
       <c r="K41" s="158"/>
       <c r="L41" s="159"/>
-      <c r="M41" s="167">
+      <c r="M41" s="183">
         <v>0.3417</v>
       </c>
-      <c r="N41" s="168">
+      <c r="N41" s="184">
         <v>0.3468</v>
       </c>
-      <c r="O41" s="168">
+      <c r="O41" s="184">
         <v>0.3533</v>
       </c>
-      <c r="P41" s="168">
+      <c r="P41" s="184">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q41" s="168">
+      <c r="Q41" s="184">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R41" s="168">
+      <c r="R41" s="184">
         <v>0.3705</v>
       </c>
-      <c r="S41" s="168">
+      <c r="S41" s="184">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T41" s="168">
+      <c r="T41" s="184">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U41" s="168">
+      <c r="U41" s="184">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V41" s="168">
+      <c r="V41" s="184">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W41" s="168">
+      <c r="W41" s="184">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X41" s="168">
+      <c r="X41" s="184">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y41" s="168">
+      <c r="Y41" s="184">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z41" s="168">
+      <c r="Z41" s="184">
         <v>0.4178</v>
       </c>
-      <c r="AA41" s="168">
+      <c r="AA41" s="184">
         <v>0.4491</v>
       </c>
-      <c r="AB41" s="168">
+      <c r="AB41" s="184">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC41" s="168">
+      <c r="AC41" s="184">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD41" s="168">
+      <c r="AD41" s="184">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE41" s="168">
+      <c r="AE41" s="184">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF41" s="168">
+      <c r="AF41" s="184">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG41" s="168">
+      <c r="AG41" s="184">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH41" s="168">
+      <c r="AH41" s="184">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI41" s="168">
+      <c r="AI41" s="184">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ41" s="168">
+      <c r="AJ41" s="184">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK41" s="168">
+      <c r="AK41" s="184">
         <v>0.73729999999999996</v>
       </c>
-      <c r="AL41" s="169">
+      <c r="AL41" s="185">
         <v>0.7681</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="165" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="163" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="133" t="s">
@@ -7095,93 +7064,93 @@
       <c r="J42" s="155"/>
       <c r="K42" s="155"/>
       <c r="L42" s="156"/>
-      <c r="M42" s="160">
+      <c r="M42" s="176">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N42" s="161">
+      <c r="N42" s="177">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O42" s="161">
+      <c r="O42" s="177">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P42" s="161">
+      <c r="P42" s="177">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q42" s="161">
+      <c r="Q42" s="177">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R42" s="161">
+      <c r="R42" s="177">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S42" s="161">
+      <c r="S42" s="177">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T42" s="161">
+      <c r="T42" s="177">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U42" s="161">
+      <c r="U42" s="177">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V42" s="161">
+      <c r="V42" s="177">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W42" s="161">
+      <c r="W42" s="177">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X42" s="161">
+      <c r="X42" s="177">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y42" s="162">
+      <c r="Y42" s="178">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z42" s="162">
+      <c r="Z42" s="178">
         <v>9.98E-2</v>
       </c>
-      <c r="AA42" s="162">
+      <c r="AA42" s="178">
         <v>0.1072</v>
       </c>
-      <c r="AB42" s="162">
+      <c r="AB42" s="178">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC42" s="162">
+      <c r="AC42" s="178">
         <v>0.1104</v>
       </c>
-      <c r="AD42" s="162">
+      <c r="AD42" s="178">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE42" s="162">
+      <c r="AE42" s="178">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF42" s="162">
+      <c r="AF42" s="178">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG42" s="162">
+      <c r="AG42" s="178">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH42" s="162">
+      <c r="AH42" s="178">
         <v>0.1545</v>
       </c>
-      <c r="AI42" s="162">
+      <c r="AI42" s="178">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ42" s="162">
+      <c r="AJ42" s="178">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK42" s="162">
+      <c r="AK42" s="178">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AL42" s="163">
+      <c r="AL42" s="179">
         <v>0.18340000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="166" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="170" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="143" t="s">
@@ -7203,93 +7172,93 @@
       <c r="J43" s="147"/>
       <c r="K43" s="147"/>
       <c r="L43" s="148"/>
-      <c r="M43" s="164">
+      <c r="M43" s="180">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N43" s="165">
+      <c r="N43" s="181">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O43" s="165">
+      <c r="O43" s="181">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P43" s="165">
+      <c r="P43" s="181">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q43" s="165">
+      <c r="Q43" s="181">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R43" s="165">
+      <c r="R43" s="181">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S43" s="165">
+      <c r="S43" s="181">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T43" s="165">
+      <c r="T43" s="181">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U43" s="165">
+      <c r="U43" s="181">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V43" s="165">
+      <c r="V43" s="181">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W43" s="165">
+      <c r="W43" s="181">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X43" s="165">
+      <c r="X43" s="181">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y43" s="165">
+      <c r="Y43" s="181">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z43" s="165">
+      <c r="Z43" s="181">
         <v>9.98E-2</v>
       </c>
-      <c r="AA43" s="165">
+      <c r="AA43" s="181">
         <v>0.1072</v>
       </c>
-      <c r="AB43" s="165">
+      <c r="AB43" s="181">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC43" s="165">
+      <c r="AC43" s="181">
         <v>0.1104</v>
       </c>
-      <c r="AD43" s="165">
+      <c r="AD43" s="181">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE43" s="165">
+      <c r="AE43" s="181">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF43" s="165">
+      <c r="AF43" s="181">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG43" s="165">
+      <c r="AG43" s="181">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH43" s="165">
+      <c r="AH43" s="181">
         <v>0.1545</v>
       </c>
-      <c r="AI43" s="165">
+      <c r="AI43" s="181">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ43" s="165">
+      <c r="AJ43" s="181">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK43" s="165">
+      <c r="AK43" s="181">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AL43" s="166">
+      <c r="AL43" s="182">
         <v>0.18340000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="167" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="194" t="s">
+      <c r="C44" s="171" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="151" t="s">
@@ -7311,93 +7280,93 @@
       <c r="J44" s="158"/>
       <c r="K44" s="158"/>
       <c r="L44" s="159"/>
-      <c r="M44" s="167">
+      <c r="M44" s="183">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N44" s="168">
+      <c r="N44" s="184">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O44" s="168">
+      <c r="O44" s="184">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P44" s="168">
+      <c r="P44" s="184">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q44" s="168">
+      <c r="Q44" s="184">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R44" s="168">
+      <c r="R44" s="184">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S44" s="168">
+      <c r="S44" s="184">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T44" s="168">
+      <c r="T44" s="184">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U44" s="168">
+      <c r="U44" s="184">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V44" s="168">
+      <c r="V44" s="184">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W44" s="168">
+      <c r="W44" s="184">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X44" s="168">
+      <c r="X44" s="184">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y44" s="168">
+      <c r="Y44" s="184">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z44" s="168">
+      <c r="Z44" s="184">
         <v>9.98E-2</v>
       </c>
-      <c r="AA44" s="168">
+      <c r="AA44" s="184">
         <v>0.1072</v>
       </c>
-      <c r="AB44" s="168">
+      <c r="AB44" s="184">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC44" s="168">
+      <c r="AC44" s="184">
         <v>0.1104</v>
       </c>
-      <c r="AD44" s="168">
+      <c r="AD44" s="184">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE44" s="168">
+      <c r="AE44" s="184">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF44" s="168">
+      <c r="AF44" s="184">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG44" s="168">
+      <c r="AG44" s="184">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH44" s="168">
+      <c r="AH44" s="184">
         <v>0.1545</v>
       </c>
-      <c r="AI44" s="168">
+      <c r="AI44" s="184">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ44" s="168">
+      <c r="AJ44" s="184">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK44" s="168">
+      <c r="AK44" s="184">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AL44" s="169">
+      <c r="AL44" s="185">
         <v>0.18340000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="178" t="s">
+      <c r="C45" s="163" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="133" t="s">
@@ -7419,93 +7388,93 @@
       <c r="J45" s="155"/>
       <c r="K45" s="155"/>
       <c r="L45" s="156"/>
-      <c r="M45" s="160">
+      <c r="M45" s="176">
         <v>0.3417</v>
       </c>
-      <c r="N45" s="161">
+      <c r="N45" s="177">
         <v>0.3468</v>
       </c>
-      <c r="O45" s="161">
+      <c r="O45" s="177">
         <v>0.3533</v>
       </c>
-      <c r="P45" s="161">
+      <c r="P45" s="177">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q45" s="161">
+      <c r="Q45" s="177">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R45" s="161">
+      <c r="R45" s="177">
         <v>0.3705</v>
       </c>
-      <c r="S45" s="161">
+      <c r="S45" s="177">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T45" s="161">
+      <c r="T45" s="177">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U45" s="161">
+      <c r="U45" s="177">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V45" s="161">
+      <c r="V45" s="177">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W45" s="161">
+      <c r="W45" s="177">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X45" s="161">
+      <c r="X45" s="177">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y45" s="162">
+      <c r="Y45" s="178">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z45" s="162">
+      <c r="Z45" s="178">
         <v>0.4178</v>
       </c>
-      <c r="AA45" s="162">
+      <c r="AA45" s="178">
         <v>0.4491</v>
       </c>
-      <c r="AB45" s="162">
+      <c r="AB45" s="178">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC45" s="162">
+      <c r="AC45" s="178">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD45" s="162">
+      <c r="AD45" s="178">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE45" s="162">
+      <c r="AE45" s="178">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF45" s="162">
+      <c r="AF45" s="178">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG45" s="162">
+      <c r="AG45" s="178">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH45" s="162">
+      <c r="AH45" s="178">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI45" s="162">
+      <c r="AI45" s="178">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ45" s="162">
+      <c r="AJ45" s="178">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK45" s="162">
+      <c r="AK45" s="178">
         <v>0.71730000000000005</v>
       </c>
-      <c r="AL45" s="163">
+      <c r="AL45" s="179">
         <v>0.72870000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="168" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="170" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="143" t="s">
@@ -7527,93 +7496,93 @@
       <c r="J46" s="147"/>
       <c r="K46" s="147"/>
       <c r="L46" s="148"/>
-      <c r="M46" s="164">
+      <c r="M46" s="180">
         <v>0.3417</v>
       </c>
-      <c r="N46" s="165">
+      <c r="N46" s="181">
         <v>0.3468</v>
       </c>
-      <c r="O46" s="165">
+      <c r="O46" s="181">
         <v>0.3533</v>
       </c>
-      <c r="P46" s="165">
+      <c r="P46" s="181">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q46" s="165">
+      <c r="Q46" s="181">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R46" s="165">
+      <c r="R46" s="181">
         <v>0.3705</v>
       </c>
-      <c r="S46" s="165">
+      <c r="S46" s="181">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T46" s="165">
+      <c r="T46" s="181">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U46" s="165">
+      <c r="U46" s="181">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V46" s="165">
+      <c r="V46" s="181">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W46" s="165">
+      <c r="W46" s="181">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X46" s="165">
+      <c r="X46" s="181">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y46" s="165">
+      <c r="Y46" s="181">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z46" s="165">
+      <c r="Z46" s="181">
         <v>0.4178</v>
       </c>
-      <c r="AA46" s="165">
+      <c r="AA46" s="181">
         <v>0.4491</v>
       </c>
-      <c r="AB46" s="165">
+      <c r="AB46" s="181">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC46" s="165">
+      <c r="AC46" s="181">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD46" s="165">
+      <c r="AD46" s="181">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE46" s="165">
+      <c r="AE46" s="181">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF46" s="165">
+      <c r="AF46" s="181">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG46" s="165">
+      <c r="AG46" s="181">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH46" s="165">
+      <c r="AH46" s="181">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI46" s="165">
+      <c r="AI46" s="181">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ46" s="165">
+      <c r="AJ46" s="181">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK46" s="165">
+      <c r="AK46" s="181">
         <v>0.71730000000000005</v>
       </c>
-      <c r="AL46" s="166">
+      <c r="AL46" s="182">
         <v>0.72870000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="169" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="194" t="s">
+      <c r="C47" s="171" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="151" t="s">
@@ -7635,93 +7604,93 @@
       <c r="J47" s="158"/>
       <c r="K47" s="158"/>
       <c r="L47" s="159"/>
-      <c r="M47" s="167">
+      <c r="M47" s="183">
         <v>0.3417</v>
       </c>
-      <c r="N47" s="168">
+      <c r="N47" s="184">
         <v>0.3468</v>
       </c>
-      <c r="O47" s="168">
+      <c r="O47" s="184">
         <v>0.3533</v>
       </c>
-      <c r="P47" s="168">
+      <c r="P47" s="184">
         <v>0.35899999999999999</v>
       </c>
-      <c r="Q47" s="168">
+      <c r="Q47" s="184">
         <v>0.36480000000000001</v>
       </c>
-      <c r="R47" s="168">
+      <c r="R47" s="184">
         <v>0.3705</v>
       </c>
-      <c r="S47" s="168">
+      <c r="S47" s="184">
         <v>0.37619999999999998</v>
       </c>
-      <c r="T47" s="168">
+      <c r="T47" s="184">
         <v>0.38179999999999997</v>
       </c>
-      <c r="U47" s="168">
+      <c r="U47" s="184">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V47" s="168">
+      <c r="V47" s="184">
         <v>0.39279999999999998</v>
       </c>
-      <c r="W47" s="168">
+      <c r="W47" s="184">
         <v>0.39850000000000002</v>
       </c>
-      <c r="X47" s="168">
+      <c r="X47" s="184">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Y47" s="168">
+      <c r="Y47" s="184">
         <v>0.38740000000000002</v>
       </c>
-      <c r="Z47" s="168">
+      <c r="Z47" s="184">
         <v>0.4178</v>
       </c>
-      <c r="AA47" s="168">
+      <c r="AA47" s="184">
         <v>0.4491</v>
       </c>
-      <c r="AB47" s="168">
+      <c r="AB47" s="184">
         <v>0.44729999999999998</v>
       </c>
-      <c r="AC47" s="168">
+      <c r="AC47" s="184">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AD47" s="168">
+      <c r="AD47" s="184">
         <v>0.53610000000000002</v>
       </c>
-      <c r="AE47" s="168">
+      <c r="AE47" s="184">
         <v>0.56340000000000001</v>
       </c>
-      <c r="AF47" s="168">
+      <c r="AF47" s="184">
         <v>0.59079999999999999</v>
       </c>
-      <c r="AG47" s="168">
+      <c r="AG47" s="184">
         <v>0.61839999999999995</v>
       </c>
-      <c r="AH47" s="168">
+      <c r="AH47" s="184">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AI47" s="168">
+      <c r="AI47" s="184">
         <v>0.67669999999999997</v>
       </c>
-      <c r="AJ47" s="168">
+      <c r="AJ47" s="184">
         <v>0.70650000000000002</v>
       </c>
-      <c r="AK47" s="168">
+      <c r="AK47" s="184">
         <v>0.71730000000000005</v>
       </c>
-      <c r="AL47" s="169">
+      <c r="AL47" s="185">
         <v>0.72870000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="179" t="s">
+      <c r="A48" s="164" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="178" t="s">
+      <c r="C48" s="163" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="133" t="s">
@@ -7743,93 +7712,93 @@
       <c r="J48" s="155"/>
       <c r="K48" s="155"/>
       <c r="L48" s="156"/>
-      <c r="M48" s="160">
+      <c r="M48" s="176">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N48" s="161">
+      <c r="N48" s="177">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O48" s="161">
+      <c r="O48" s="177">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P48" s="161">
+      <c r="P48" s="177">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q48" s="161">
+      <c r="Q48" s="177">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R48" s="161">
+      <c r="R48" s="177">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S48" s="161">
+      <c r="S48" s="177">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T48" s="161">
+      <c r="T48" s="177">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U48" s="161">
+      <c r="U48" s="177">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V48" s="161">
+      <c r="V48" s="177">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W48" s="161">
+      <c r="W48" s="177">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X48" s="161">
+      <c r="X48" s="177">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y48" s="162">
+      <c r="Y48" s="178">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z48" s="162">
+      <c r="Z48" s="178">
         <v>9.98E-2</v>
       </c>
-      <c r="AA48" s="162">
+      <c r="AA48" s="178">
         <v>0.1072</v>
       </c>
-      <c r="AB48" s="162">
+      <c r="AB48" s="178">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC48" s="162">
+      <c r="AC48" s="178">
         <v>0.1104</v>
       </c>
-      <c r="AD48" s="162">
+      <c r="AD48" s="178">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE48" s="162">
+      <c r="AE48" s="178">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF48" s="162">
+      <c r="AF48" s="178">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG48" s="162">
+      <c r="AG48" s="178">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH48" s="162">
+      <c r="AH48" s="178">
         <v>0.1545</v>
       </c>
-      <c r="AI48" s="162">
+      <c r="AI48" s="178">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ48" s="162">
+      <c r="AJ48" s="178">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK48" s="162">
+      <c r="AK48" s="178">
         <v>0.17119999999999999</v>
       </c>
-      <c r="AL48" s="163">
+      <c r="AL48" s="179">
         <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="191" t="s">
+      <c r="A49" s="168" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="193" t="s">
+      <c r="C49" s="170" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="143" t="s">
@@ -7851,93 +7820,93 @@
       <c r="J49" s="147"/>
       <c r="K49" s="147"/>
       <c r="L49" s="148"/>
-      <c r="M49" s="164">
+      <c r="M49" s="180">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N49" s="165">
+      <c r="N49" s="181">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O49" s="165">
+      <c r="O49" s="181">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P49" s="165">
+      <c r="P49" s="181">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q49" s="165">
+      <c r="Q49" s="181">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R49" s="165">
+      <c r="R49" s="181">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S49" s="165">
+      <c r="S49" s="181">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T49" s="165">
+      <c r="T49" s="181">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U49" s="165">
+      <c r="U49" s="181">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V49" s="165">
+      <c r="V49" s="181">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W49" s="165">
+      <c r="W49" s="181">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X49" s="165">
+      <c r="X49" s="181">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y49" s="165">
+      <c r="Y49" s="181">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z49" s="165">
+      <c r="Z49" s="181">
         <v>9.98E-2</v>
       </c>
-      <c r="AA49" s="165">
+      <c r="AA49" s="181">
         <v>0.1072</v>
       </c>
-      <c r="AB49" s="165">
+      <c r="AB49" s="181">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC49" s="165">
+      <c r="AC49" s="181">
         <v>0.1104</v>
       </c>
-      <c r="AD49" s="165">
+      <c r="AD49" s="181">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE49" s="165">
+      <c r="AE49" s="181">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF49" s="165">
+      <c r="AF49" s="181">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG49" s="165">
+      <c r="AG49" s="181">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH49" s="165">
+      <c r="AH49" s="181">
         <v>0.1545</v>
       </c>
-      <c r="AI49" s="165">
+      <c r="AI49" s="181">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ49" s="165">
+      <c r="AJ49" s="181">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK49" s="165">
+      <c r="AK49" s="181">
         <v>0.17119999999999999</v>
       </c>
-      <c r="AL49" s="166">
+      <c r="AL49" s="182">
         <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="169" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="194" t="s">
+      <c r="C50" s="171" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="151" t="s">
@@ -7959,82 +7928,82 @@
       <c r="J50" s="158"/>
       <c r="K50" s="158"/>
       <c r="L50" s="159"/>
-      <c r="M50" s="167">
+      <c r="M50" s="183">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N50" s="168">
+      <c r="N50" s="184">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="O50" s="168">
+      <c r="O50" s="184">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P50" s="168">
+      <c r="P50" s="184">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q50" s="168">
+      <c r="Q50" s="184">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="R50" s="168">
+      <c r="R50" s="184">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="S50" s="168">
+      <c r="S50" s="184">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="T50" s="168">
+      <c r="T50" s="184">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="U50" s="168">
+      <c r="U50" s="184">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="V50" s="168">
+      <c r="V50" s="184">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="W50" s="168">
+      <c r="W50" s="184">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="X50" s="168">
+      <c r="X50" s="184">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Y50" s="168">
+      <c r="Y50" s="184">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="Z50" s="168">
+      <c r="Z50" s="184">
         <v>9.98E-2</v>
       </c>
-      <c r="AA50" s="168">
+      <c r="AA50" s="184">
         <v>0.1072</v>
       </c>
-      <c r="AB50" s="168">
+      <c r="AB50" s="184">
         <v>0.10680000000000001</v>
       </c>
-      <c r="AC50" s="168">
+      <c r="AC50" s="184">
         <v>0.1104</v>
       </c>
-      <c r="AD50" s="168">
+      <c r="AD50" s="184">
         <v>0.12790000000000001</v>
       </c>
-      <c r="AE50" s="168">
+      <c r="AE50" s="184">
         <v>0.13450000000000001</v>
       </c>
-      <c r="AF50" s="168">
+      <c r="AF50" s="184">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG50" s="168">
+      <c r="AG50" s="184">
         <v>0.14760000000000001</v>
       </c>
-      <c r="AH50" s="168">
+      <c r="AH50" s="184">
         <v>0.1545</v>
       </c>
-      <c r="AI50" s="168">
+      <c r="AI50" s="184">
         <v>0.16159999999999999</v>
       </c>
-      <c r="AJ50" s="168">
+      <c r="AJ50" s="184">
         <v>0.16869999999999999</v>
       </c>
-      <c r="AK50" s="168">
+      <c r="AK50" s="184">
         <v>0.17119999999999999</v>
       </c>
-      <c r="AL50" s="169">
+      <c r="AL50" s="185">
         <v>0.17399999999999999</v>
       </c>
     </row>
@@ -8048,11 +8017,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A591799-46EC-4E32-8405-77955CDF2CDB}">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="A14:C17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8269,43 +8238,43 @@
       <c r="AA2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AB2" s="106">
+      <c r="AB2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AC2" s="106">
+      <c r="AC2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AD2" s="106">
+      <c r="AD2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AE2" s="106">
+      <c r="AE2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AF2" s="106">
+      <c r="AF2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AG2" s="106">
+      <c r="AG2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AH2" s="106">
+      <c r="AH2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AI2" s="106">
+      <c r="AI2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AJ2" s="106">
+      <c r="AJ2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AK2" s="106">
+      <c r="AK2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AL2" s="106">
+      <c r="AL2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AM2" s="106">
+      <c r="AM2" s="59">
         <v>0.1915</v>
       </c>
-      <c r="AN2" s="107">
+      <c r="AN2" s="172">
         <v>0.1915</v>
       </c>
     </row>
@@ -8383,43 +8352,43 @@
       <c r="AA3" s="56">
         <v>0</v>
       </c>
-      <c r="AB3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="103">
+      <c r="AB3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="173">
         <v>0</v>
       </c>
     </row>
@@ -8497,43 +8466,43 @@
       <c r="AA4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB4" s="102">
+      <c r="AB4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AC4" s="102">
+      <c r="AC4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AD4" s="102">
+      <c r="AD4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AE4" s="102">
+      <c r="AE4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AF4" s="102">
+      <c r="AF4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AG4" s="102">
+      <c r="AG4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH4" s="102">
+      <c r="AH4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AI4" s="102">
+      <c r="AI4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ4" s="102">
+      <c r="AJ4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AK4" s="102">
+      <c r="AK4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL4" s="102">
+      <c r="AL4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AM4" s="102">
+      <c r="AM4" s="56">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AN4" s="103">
+      <c r="AN4" s="173">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -8611,43 +8580,43 @@
       <c r="AA5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AB5" s="104">
+      <c r="AB5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AC5" s="104">
+      <c r="AC5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AD5" s="104">
+      <c r="AD5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AE5" s="104">
+      <c r="AE5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AF5" s="104">
+      <c r="AF5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AG5" s="104">
+      <c r="AG5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AH5" s="104">
+      <c r="AH5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AI5" s="104">
+      <c r="AI5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AJ5" s="104">
+      <c r="AJ5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AK5" s="104">
+      <c r="AK5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AL5" s="104">
+      <c r="AL5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AM5" s="104">
+      <c r="AM5" s="62">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AN5" s="105">
+      <c r="AN5" s="174">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -8702,67 +8671,67 @@
         <v>0.75190000000000001</v>
       </c>
       <c r="T6" s="59">
-        <v>0.84209999999999996</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="U6" s="59">
-        <v>0.93240000000000001</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="V6" s="59">
-        <v>0.96050000000000002</v>
+        <v>1.0371999999999999</v>
       </c>
       <c r="W6" s="59">
-        <v>0.98860000000000003</v>
+        <v>1.1032999999999999</v>
       </c>
       <c r="X6" s="59">
-        <v>1.0552999999999999</v>
+        <v>1.1696</v>
       </c>
       <c r="Y6" s="59">
-        <v>1.1221000000000001</v>
+        <v>1.2358</v>
       </c>
       <c r="Z6" s="59">
-        <v>1.1473</v>
+        <v>1.2497</v>
       </c>
       <c r="AA6" s="59">
-        <v>1.1578999999999999</v>
-      </c>
-      <c r="AB6" s="106">
-        <v>1.2068000000000001</v>
-      </c>
-      <c r="AC6" s="106">
-        <v>1.2572000000000001</v>
-      </c>
-      <c r="AD6" s="106">
-        <v>1.3104</v>
-      </c>
-      <c r="AE6" s="106">
-        <v>1.3664000000000001</v>
-      </c>
-      <c r="AF6" s="106">
-        <v>1.4224000000000001</v>
-      </c>
-      <c r="AG6" s="106">
-        <v>1.4812000000000001</v>
-      </c>
-      <c r="AH6" s="106">
-        <v>1.5427999999999999</v>
-      </c>
-      <c r="AI6" s="106">
-        <v>1.6072</v>
-      </c>
-      <c r="AJ6" s="106">
-        <v>1.6744000000000001</v>
-      </c>
-      <c r="AK6" s="106">
-        <v>1.7444</v>
-      </c>
-      <c r="AL6" s="106">
-        <v>1.8171999999999999</v>
-      </c>
-      <c r="AM6" s="106">
-        <v>1.8928</v>
-      </c>
-      <c r="AN6" s="107">
-        <v>1.9712000000000001</v>
+        <v>1.2547999999999999</v>
+      </c>
+      <c r="AB6" s="59">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>1.3804000000000001</v>
+      </c>
+      <c r="AD6" s="59">
+        <v>1.4476</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>1.5176000000000001</v>
+      </c>
+      <c r="AF6" s="59">
+        <v>1.5931999999999999</v>
+      </c>
+      <c r="AG6" s="59">
+        <v>1.6716</v>
+      </c>
+      <c r="AH6" s="59">
+        <v>1.7527999999999999</v>
+      </c>
+      <c r="AI6" s="59">
+        <v>1.8395999999999999</v>
+      </c>
+      <c r="AJ6" s="59">
+        <v>1.9292</v>
+      </c>
+      <c r="AK6" s="59">
+        <v>2.0244</v>
+      </c>
+      <c r="AL6" s="59">
+        <v>2.1223999999999998</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>2.226</v>
+      </c>
+      <c r="AN6" s="172">
+        <v>2.3351999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
@@ -8839,43 +8808,43 @@
       <c r="AA7" s="56">
         <v>0</v>
       </c>
-      <c r="AB7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="103">
+      <c r="AB7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="173">
         <v>0</v>
       </c>
     </row>
@@ -8930,67 +8899,67 @@
         <v>2.69E-2</v>
       </c>
       <c r="T8" s="56">
-        <v>3.0099999999999998E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="U8" s="56">
-        <v>3.3300000000000003E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="V8" s="56">
-        <v>3.4299999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="W8" s="56">
-        <v>3.5299999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="X8" s="56">
-        <v>3.7699999999999997E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="Y8" s="56">
-        <v>4.0099999999999997E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Z8" s="56">
-        <v>4.1000000000000002E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="AA8" s="56">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="AB8" s="102">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="AC8" s="102">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="AD8" s="102">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="AE8" s="102">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="AF8" s="102">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="AG8" s="102">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="AH8" s="102">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="AI8" s="102">
-        <v>5.74E-2</v>
-      </c>
-      <c r="AJ8" s="102">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="AK8" s="102">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="AL8" s="102">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="AM8" s="102">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="AN8" s="103">
-        <v>7.0400000000000004E-2</v>
+        <v>4.48E-2</v>
+      </c>
+      <c r="AB8" s="56">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AC8" s="56">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="AD8" s="56">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="AF8" s="56">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="AG8" s="56">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AH8" s="56">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="AI8" s="56">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="AJ8" s="56">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="AK8" s="56">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="AL8" s="56">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="AM8" s="56">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="AN8" s="173">
+        <v>8.3400000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9067,43 +9036,43 @@
       <c r="AA9" s="62">
         <v>0</v>
       </c>
-      <c r="AB9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="104">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="105">
+      <c r="AB9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="174">
         <v>0</v>
       </c>
     </row>
@@ -9181,43 +9150,43 @@
       <c r="AA10" s="59">
         <v>1.2547999999999999</v>
       </c>
-      <c r="AB10" s="106">
+      <c r="AB10" s="59">
         <v>1.3160000000000001</v>
       </c>
-      <c r="AC10" s="106">
+      <c r="AC10" s="59">
         <v>1.3804000000000001</v>
       </c>
-      <c r="AD10" s="106">
+      <c r="AD10" s="59">
         <v>1.4476</v>
       </c>
-      <c r="AE10" s="106">
+      <c r="AE10" s="59">
         <v>1.5176000000000001</v>
       </c>
-      <c r="AF10" s="106">
+      <c r="AF10" s="59">
         <v>1.5931999999999999</v>
       </c>
-      <c r="AG10" s="106">
+      <c r="AG10" s="59">
         <v>1.6716</v>
       </c>
-      <c r="AH10" s="106">
+      <c r="AH10" s="59">
         <v>1.7527999999999999</v>
       </c>
-      <c r="AI10" s="106">
+      <c r="AI10" s="59">
         <v>1.8395999999999999</v>
       </c>
-      <c r="AJ10" s="106">
+      <c r="AJ10" s="59">
         <v>1.9292</v>
       </c>
-      <c r="AK10" s="106">
+      <c r="AK10" s="59">
         <v>2.0244</v>
       </c>
-      <c r="AL10" s="106">
+      <c r="AL10" s="59">
         <v>2.1223999999999998</v>
       </c>
-      <c r="AM10" s="106">
+      <c r="AM10" s="59">
         <v>2.226</v>
       </c>
-      <c r="AN10" s="107">
+      <c r="AN10" s="172">
         <v>2.3351999999999999</v>
       </c>
     </row>
@@ -9295,43 +9264,43 @@
       <c r="AA11" s="56">
         <v>0</v>
       </c>
-      <c r="AB11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="103">
+      <c r="AB11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="173">
         <v>0</v>
       </c>
     </row>
@@ -9409,43 +9378,43 @@
       <c r="AA12" s="83">
         <v>4.48E-2</v>
       </c>
-      <c r="AB12" s="102">
+      <c r="AB12" s="56">
         <v>4.7E-2</v>
       </c>
-      <c r="AC12" s="102">
+      <c r="AC12" s="56">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="AD12" s="102">
+      <c r="AD12" s="56">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="AE12" s="102">
+      <c r="AE12" s="56">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="AF12" s="102">
+      <c r="AF12" s="56">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="AG12" s="102">
+      <c r="AG12" s="56">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH12" s="102">
+      <c r="AH12" s="56">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="AI12" s="102">
+      <c r="AI12" s="56">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="AJ12" s="102">
+      <c r="AJ12" s="56">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="AK12" s="102">
+      <c r="AK12" s="56">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="AL12" s="102">
+      <c r="AL12" s="56">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="AM12" s="102">
+      <c r="AM12" s="56">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="AN12" s="103">
+      <c r="AN12" s="173">
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
@@ -9523,43 +9492,43 @@
       <c r="AA13" s="62">
         <v>0</v>
       </c>
-      <c r="AB13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="104">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="105">
+      <c r="AB13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="62">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="174">
         <v>0</v>
       </c>
     </row>
@@ -9637,43 +9606,43 @@
       <c r="AA14" s="59">
         <v>1.2602</v>
       </c>
-      <c r="AB14" s="106">
+      <c r="AB14" s="59">
         <v>1.2524999999999999</v>
       </c>
-      <c r="AC14" s="106">
+      <c r="AC14" s="59">
         <v>1.2421</v>
       </c>
-      <c r="AD14" s="106">
+      <c r="AD14" s="59">
         <v>1.2318</v>
       </c>
-      <c r="AE14" s="106">
+      <c r="AE14" s="59">
         <v>1.2216</v>
       </c>
-      <c r="AF14" s="106">
+      <c r="AF14" s="59">
         <v>1.2115</v>
       </c>
-      <c r="AG14" s="106">
+      <c r="AG14" s="59">
         <v>1.2015</v>
       </c>
-      <c r="AH14" s="106">
+      <c r="AH14" s="59">
         <v>1.1916</v>
       </c>
-      <c r="AI14" s="106">
+      <c r="AI14" s="59">
         <v>1.1817</v>
       </c>
-      <c r="AJ14" s="106">
+      <c r="AJ14" s="59">
         <v>1.1718999999999999</v>
       </c>
-      <c r="AK14" s="106">
+      <c r="AK14" s="59">
         <v>1.1621999999999999</v>
       </c>
-      <c r="AL14" s="106">
+      <c r="AL14" s="59">
         <v>1.1526000000000001</v>
       </c>
-      <c r="AM14" s="106">
+      <c r="AM14" s="59">
         <v>1.1431</v>
       </c>
-      <c r="AN14" s="107">
+      <c r="AN14" s="172">
         <v>1.1335999999999999</v>
       </c>
     </row>
@@ -9751,43 +9720,43 @@
       <c r="AA15" s="83">
         <v>1.2364999999999999</v>
       </c>
-      <c r="AB15" s="100">
+      <c r="AB15" s="83">
         <v>1.226</v>
       </c>
-      <c r="AC15" s="100">
+      <c r="AC15" s="83">
         <v>1.2156</v>
       </c>
-      <c r="AD15" s="100">
+      <c r="AD15" s="83">
         <v>1.2053</v>
       </c>
-      <c r="AE15" s="100">
+      <c r="AE15" s="83">
         <v>1.1951000000000001</v>
       </c>
-      <c r="AF15" s="100">
+      <c r="AF15" s="83">
         <v>1.1850000000000001</v>
       </c>
-      <c r="AG15" s="100">
+      <c r="AG15" s="83">
         <v>1.175</v>
       </c>
-      <c r="AH15" s="100">
+      <c r="AH15" s="83">
         <v>1.1651</v>
       </c>
-      <c r="AI15" s="100">
+      <c r="AI15" s="83">
         <v>1.1552</v>
       </c>
-      <c r="AJ15" s="100">
+      <c r="AJ15" s="83">
         <v>1.1454</v>
       </c>
-      <c r="AK15" s="100">
+      <c r="AK15" s="83">
         <v>1.1356999999999999</v>
       </c>
-      <c r="AL15" s="100">
+      <c r="AL15" s="83">
         <v>1.1261000000000001</v>
       </c>
-      <c r="AM15" s="100">
+      <c r="AM15" s="83">
         <v>1.1166</v>
       </c>
-      <c r="AN15" s="101">
+      <c r="AN15" s="175">
         <v>1.1071</v>
       </c>
     </row>
@@ -9865,43 +9834,43 @@
       <c r="AA16" s="56">
         <v>0</v>
       </c>
-      <c r="AB16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="103">
+      <c r="AB16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="173">
         <v>0</v>
       </c>
     </row>
@@ -9979,43 +9948,43 @@
       <c r="AA17" s="84">
         <v>1E-4</v>
       </c>
-      <c r="AB17" s="104">
+      <c r="AB17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AC17" s="104">
+      <c r="AC17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AD17" s="104">
+      <c r="AD17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AE17" s="104">
+      <c r="AE17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AF17" s="104">
+      <c r="AF17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AG17" s="104">
+      <c r="AG17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AH17" s="104">
+      <c r="AH17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AI17" s="104">
+      <c r="AI17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AJ17" s="104">
+      <c r="AJ17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AK17" s="104">
+      <c r="AK17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AL17" s="104">
+      <c r="AL17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AM17" s="104">
+      <c r="AM17" s="62">
         <v>1E-4</v>
       </c>
-      <c r="AN17" s="105">
+      <c r="AN17" s="174">
         <v>1E-4</v>
       </c>
     </row>
@@ -10982,67 +10951,67 @@
         <v>0.75190000000000001</v>
       </c>
       <c r="T26" s="59">
-        <v>0.84209999999999996</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="U26" s="59">
-        <v>0.93240000000000001</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="V26" s="59">
-        <v>0.96050000000000002</v>
+        <v>1.0371999999999999</v>
       </c>
       <c r="W26" s="59">
-        <v>0.98860000000000003</v>
+        <v>1.1032999999999999</v>
       </c>
       <c r="X26" s="59">
-        <v>1.0552999999999999</v>
+        <v>1.1696</v>
       </c>
       <c r="Y26" s="59">
-        <v>1.1221000000000001</v>
+        <v>1.2358</v>
       </c>
       <c r="Z26" s="59">
-        <v>1.1473</v>
+        <v>1.2497</v>
       </c>
       <c r="AA26" s="59">
-        <v>1.1578999999999999</v>
+        <v>1.2547999999999999</v>
       </c>
       <c r="AB26" s="106">
-        <v>1.2068000000000001</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="AC26" s="106">
-        <v>1.2572000000000001</v>
+        <v>1.3804000000000001</v>
       </c>
       <c r="AD26" s="106">
-        <v>1.3104</v>
+        <v>1.4476</v>
       </c>
       <c r="AE26" s="106">
-        <v>1.3664000000000001</v>
+        <v>1.5176000000000001</v>
       </c>
       <c r="AF26" s="106">
-        <v>1.4224000000000001</v>
+        <v>1.5931999999999999</v>
       </c>
       <c r="AG26" s="106">
-        <v>1.4812000000000001</v>
+        <v>1.6716</v>
       </c>
       <c r="AH26" s="106">
-        <v>1.5427999999999999</v>
+        <v>1.7527999999999999</v>
       </c>
       <c r="AI26" s="106">
-        <v>1.6072</v>
+        <v>1.8395999999999999</v>
       </c>
       <c r="AJ26" s="106">
-        <v>1.6744000000000001</v>
+        <v>1.9292</v>
       </c>
       <c r="AK26" s="106">
-        <v>1.7444</v>
+        <v>2.0244</v>
       </c>
       <c r="AL26" s="106">
-        <v>1.8171999999999999</v>
+        <v>2.1223999999999998</v>
       </c>
       <c r="AM26" s="106">
-        <v>1.8928</v>
+        <v>2.226</v>
       </c>
       <c r="AN26" s="107">
-        <v>1.9712000000000001</v>
+        <v>2.3351999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
@@ -11210,67 +11179,67 @@
         <v>2.69E-2</v>
       </c>
       <c r="T28" s="56">
-        <v>3.0099999999999998E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="U28" s="56">
-        <v>3.3300000000000003E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="V28" s="56">
-        <v>3.4299999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="W28" s="56">
-        <v>3.5299999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="X28" s="56">
-        <v>3.7699999999999997E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="Y28" s="56">
-        <v>4.0099999999999997E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Z28" s="56">
-        <v>4.1000000000000002E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="AA28" s="56">
-        <v>4.1399999999999999E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AB28" s="102">
-        <v>4.3099999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AC28" s="102">
-        <v>4.4900000000000002E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="AD28" s="102">
-        <v>4.6800000000000001E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="AE28" s="102">
-        <v>4.8800000000000003E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="AF28" s="102">
-        <v>5.0799999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="AG28" s="102">
-        <v>5.2900000000000003E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH28" s="102">
-        <v>5.5100000000000003E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="AI28" s="102">
-        <v>5.74E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="AJ28" s="102">
-        <v>5.9799999999999999E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="AK28" s="102">
-        <v>6.2300000000000001E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="AL28" s="102">
-        <v>6.4899999999999999E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="AM28" s="102">
-        <v>6.7599999999999993E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="AN28" s="103">
-        <v>7.0400000000000004E-2</v>
+        <v>8.3400000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13262,67 +13231,67 @@
         <v>0.75190000000000001</v>
       </c>
       <c r="T46" s="59">
-        <v>0.84209999999999996</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="U46" s="59">
-        <v>0.93240000000000001</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="V46" s="59">
-        <v>0.96050000000000002</v>
+        <v>1.0371999999999999</v>
       </c>
       <c r="W46" s="59">
-        <v>0.98860000000000003</v>
+        <v>1.1032999999999999</v>
       </c>
       <c r="X46" s="59">
-        <v>1.0552999999999999</v>
+        <v>1.1696</v>
       </c>
       <c r="Y46" s="59">
-        <v>1.1221000000000001</v>
+        <v>1.2358</v>
       </c>
       <c r="Z46" s="59">
-        <v>1.1473</v>
+        <v>1.2497</v>
       </c>
       <c r="AA46" s="59">
-        <v>1.1578999999999999</v>
+        <v>1.2547999999999999</v>
       </c>
       <c r="AB46" s="106">
-        <v>1.2068000000000001</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="AC46" s="106">
-        <v>1.2572000000000001</v>
+        <v>1.3804000000000001</v>
       </c>
       <c r="AD46" s="106">
-        <v>1.3104</v>
+        <v>1.4476</v>
       </c>
       <c r="AE46" s="106">
-        <v>1.3664000000000001</v>
+        <v>1.5176000000000001</v>
       </c>
       <c r="AF46" s="106">
-        <v>1.4224000000000001</v>
+        <v>1.5931999999999999</v>
       </c>
       <c r="AG46" s="106">
-        <v>1.4812000000000001</v>
+        <v>1.6716</v>
       </c>
       <c r="AH46" s="106">
-        <v>1.5427999999999999</v>
+        <v>1.7527999999999999</v>
       </c>
       <c r="AI46" s="106">
-        <v>1.6072</v>
+        <v>1.8395999999999999</v>
       </c>
       <c r="AJ46" s="106">
-        <v>1.6744000000000001</v>
+        <v>1.9292</v>
       </c>
       <c r="AK46" s="106">
-        <v>1.7444</v>
+        <v>2.0244</v>
       </c>
       <c r="AL46" s="106">
-        <v>1.8171999999999999</v>
+        <v>2.1223999999999998</v>
       </c>
       <c r="AM46" s="106">
-        <v>1.8928</v>
+        <v>2.226</v>
       </c>
       <c r="AN46" s="107">
-        <v>1.9712000000000001</v>
+        <v>2.3351999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.3">
@@ -13490,67 +13459,67 @@
         <v>2.69E-2</v>
       </c>
       <c r="T48" s="56">
-        <v>3.0099999999999998E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="U48" s="56">
-        <v>3.3300000000000003E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="V48" s="56">
-        <v>3.4299999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="W48" s="56">
-        <v>3.5299999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="X48" s="56">
-        <v>3.7699999999999997E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="Y48" s="56">
-        <v>4.0099999999999997E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="Z48" s="56">
-        <v>4.1000000000000002E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="AA48" s="56">
-        <v>4.1399999999999999E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AB48" s="102">
-        <v>4.3099999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AC48" s="102">
-        <v>4.4900000000000002E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="AD48" s="102">
-        <v>4.6800000000000001E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="AE48" s="102">
-        <v>4.8800000000000003E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="AF48" s="102">
-        <v>5.0799999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="AG48" s="102">
-        <v>5.2900000000000003E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH48" s="102">
-        <v>5.5100000000000003E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="AI48" s="102">
-        <v>5.74E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="AJ48" s="102">
-        <v>5.9799999999999999E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="AK48" s="102">
-        <v>6.2300000000000001E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="AL48" s="102">
-        <v>6.4899999999999999E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="AM48" s="102">
-        <v>6.7599999999999993E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="AN48" s="103">
-        <v>7.0400000000000004E-2</v>
+        <v>8.3400000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19138,6 +19107,118 @@
       <c r="AN97" s="105">
         <v>0</v>
       </c>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="43"/>
+      <c r="AC100" s="43"/>
+      <c r="AD100" s="43"/>
+      <c r="AE100" s="43"/>
+      <c r="AF100" s="43"/>
+      <c r="AG100" s="43"/>
+      <c r="AH100" s="43"/>
+      <c r="AI100" s="43"/>
+      <c r="AJ100" s="43"/>
+      <c r="AK100" s="43"/>
+      <c r="AL100" s="43"/>
+      <c r="AM100" s="43"/>
+      <c r="AN100" s="43"/>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="43"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="43"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="43"/>
+      <c r="AF101" s="43"/>
+      <c r="AG101" s="43"/>
+      <c r="AH101" s="43"/>
+      <c r="AI101" s="43"/>
+      <c r="AJ101" s="43"/>
+      <c r="AK101" s="43"/>
+      <c r="AL101" s="43"/>
+      <c r="AM101" s="43"/>
+      <c r="AN101" s="43"/>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="43"/>
+      <c r="Y102" s="43"/>
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="43"/>
+      <c r="AB102" s="43"/>
+      <c r="AC102" s="43"/>
+      <c r="AD102" s="43"/>
+      <c r="AE102" s="43"/>
+      <c r="AF102" s="43"/>
+      <c r="AG102" s="43"/>
+      <c r="AH102" s="43"/>
+      <c r="AI102" s="43"/>
+      <c r="AJ102" s="43"/>
+      <c r="AK102" s="43"/>
+      <c r="AL102" s="43"/>
+      <c r="AM102" s="43"/>
+      <c r="AN102" s="43"/>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="43"/>
+      <c r="Z103" s="43"/>
+      <c r="AA103" s="43"/>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="43"/>
+      <c r="AD103" s="43"/>
+      <c r="AE103" s="43"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="43"/>
+      <c r="AH103" s="43"/>
+      <c r="AI103" s="43"/>
+      <c r="AJ103" s="43"/>
+      <c r="AK103" s="43"/>
+      <c r="AL103" s="43"/>
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20037,5 +20118,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8648DDC-0396-4113-872D-ECAFC9609D97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8648DDC-0396-4113-872D-ECAFC9609D97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>